--- a/data/Final-Manual-Oussama.xlsx
+++ b/data/Final-Manual-Oussama.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/newuser/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/newuser/Desktop/FinalProjectTeam1/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0605FAAF-B0EB-4049-9490-843C0F366A48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4926EDD-1485-8246-9564-C3DE09573626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16640" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16700" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="339">
   <si>
     <t>Expected Result</t>
   </si>
@@ -497,9 +497,6 @@
     <t>Bug003</t>
   </si>
   <si>
-    <t>Choose another product from the shop, Click on the product to view its details.</t>
-  </si>
-  <si>
     <t>User should be navigated back to the shop page.</t>
   </si>
   <si>
@@ -512,32 +509,6 @@
     <t xml:space="preserve">The Compare page should be displayed </t>
   </si>
   <si>
-    <r>
-      <t>Click on the "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Shop</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>" button located at the top right of the website's header to go back to the shop page.</t>
-    </r>
-  </si>
-  <si>
     <t>TC008</t>
   </si>
   <si>
@@ -547,32 +518,6 @@
     <t>Verify that the Wishlist Page feature functions correctly for Logged-in Users.</t>
   </si>
   <si>
-    <r>
-      <t>Click on the "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Add to wishlist</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>" link located right of the product picture on the center of the page next to the "Add to Compare" link to add it to the compare page.</t>
-    </r>
-  </si>
-  <si>
     <t>The selected product should be added to the wishlist page.</t>
   </si>
   <si>
@@ -580,35 +525,6 @@
   </si>
   <si>
     <t xml:space="preserve">The wishlist page should be displayed </t>
-  </si>
-  <si>
-    <r>
-      <t>Click on the "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>wishlist</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>" icon located on the right side of the header next to the "Compare" icon to go to the wishlist page.</t>
-    </r>
-  </si>
-  <si>
-    <t>Verify that the two products are displayed on the wishlist page.</t>
   </si>
   <si>
     <t>The two selected products should be displayed on the wishlist page.</t>
@@ -2815,13 +2731,7 @@
     <t>The product should be added to the cart.</t>
   </si>
   <si>
-    <t>Go to the cart page and check if the product is listed.</t>
-  </si>
-  <si>
     <t>The product should be listed in the cart with the correct name, price, and quantity.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on the "Add to Cart" link on the right of the product to add the  product to the cart page </t>
   </si>
   <si>
     <r>
@@ -3228,6 +3138,119 @@
   </si>
   <si>
     <t>The user should be logged out and redirected to the "My Account" page.</t>
+  </si>
+  <si>
+    <r>
+      <t>9- Click on the "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Shop</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button located at the top right of the website's header to go back to the shop page.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11-Click on the "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Add to wishlist</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" link located right of the product picture on the center of the page next to the "Add to Compare" link to add it to the compare page.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>12-Click on the "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Shop</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button located at the top right of the website's header to go back to the shop page.</t>
+    </r>
+  </si>
+  <si>
+    <t>13-Choose another product from the shop, Click on the product to view its details.</t>
+  </si>
+  <si>
+    <r>
+      <t>14-Click on the "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Add to wishlist</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" link located right of the product picture on the center of the page next to the "Add to Compare" link to add it to the compare page.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">17- Click on the "Add to Cart" link on the right of the product to add the  product to the cart page </t>
+  </si>
+  <si>
+    <t>18- Go to the cart page and check if the product is listed.</t>
   </si>
 </sst>
 </file>
@@ -3952,7 +3975,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="208">
+  <cellXfs count="212">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4455,6 +4478,39 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4467,39 +4523,6 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4562,12 +4585,79 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="259">
+  <dxfs count="265">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -7095,10 +7185,10 @@
     </row>
     <row r="2" spans="1:2" ht="47" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="61" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B2" s="58" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="48" customHeight="1" x14ac:dyDescent="0.15">
@@ -7166,28 +7256,28 @@
   <sheetData>
     <row r="1" spans="1:11" s="89" customFormat="1" ht="56" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="36" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C1" s="50" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D1" s="38" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F1" s="41" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="G1" s="52" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="H1" s="51" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="I1" s="40" t="s">
         <v>30</v>
@@ -7201,13 +7291,13 @@
     </row>
     <row r="2" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="108" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B2" s="117" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="C2" s="68" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D2" s="69" t="s">
         <v>1</v>
@@ -7226,7 +7316,7 @@
       <c r="A3" s="109"/>
       <c r="B3" s="118"/>
       <c r="C3" s="69" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D3" s="69" t="s">
         <v>22</v>
@@ -7245,7 +7335,7 @@
       <c r="A4" s="109"/>
       <c r="B4" s="118"/>
       <c r="C4" s="69" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D4" s="69" t="s">
         <v>58</v>
@@ -7264,10 +7354,10 @@
       <c r="A5" s="109"/>
       <c r="B5" s="118"/>
       <c r="C5" s="69" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D5" s="69" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E5" s="20" t="s">
         <v>2</v>
@@ -7283,10 +7373,10 @@
       <c r="A6" s="109"/>
       <c r="B6" s="118"/>
       <c r="C6" s="54" t="s">
+        <v>289</v>
+      </c>
+      <c r="D6" s="53" t="s">
         <v>294</v>
-      </c>
-      <c r="D6" s="53" t="s">
-        <v>299</v>
       </c>
       <c r="E6" s="20" t="s">
         <v>2</v>
@@ -7302,10 +7392,10 @@
       <c r="A7" s="109"/>
       <c r="B7" s="118"/>
       <c r="C7" s="53" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D7" s="53" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="E7" s="20" t="s">
         <v>2</v>
@@ -7321,10 +7411,10 @@
       <c r="A8" s="109"/>
       <c r="B8" s="118"/>
       <c r="C8" s="53" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D8" s="53" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="E8" s="20" t="s">
         <v>2</v>
@@ -7340,10 +7430,10 @@
       <c r="A9" s="109"/>
       <c r="B9" s="118"/>
       <c r="C9" s="53" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D9" s="53" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="E9" s="20" t="s">
         <v>2</v>
@@ -7379,47 +7469,47 @@
     <mergeCell ref="I2:I9"/>
   </mergeCells>
   <conditionalFormatting sqref="G2:G9 E2:E9">
-    <cfRule type="cellIs" dxfId="77" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="8" operator="equal">
       <formula>"Ready To Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="9" operator="equal">
       <formula>"Ready To Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="10" operator="equal">
       <formula>"Block/Skip"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="11" operator="equal">
       <formula>"Ready To Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="12" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="13" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J9">
-    <cfRule type="cellIs" dxfId="71" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="4" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="5" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="6" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="7" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K9">
-    <cfRule type="cellIs" dxfId="67" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="1" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="2" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="3" operator="equal">
       <formula>"High"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7467,28 +7557,28 @@
   <sheetData>
     <row r="1" spans="1:11" s="89" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="36" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C1" s="42" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D1" s="38" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F1" s="41" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="G1" s="52" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="H1" s="51" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="I1" s="40" t="s">
         <v>30</v>
@@ -7502,13 +7592,13 @@
     </row>
     <row r="2" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="200" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B2" s="104" t="s">
         <v>27</v>
       </c>
       <c r="C2" s="55" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D2" s="55" t="s">
         <v>1</v>
@@ -7527,7 +7617,7 @@
       <c r="A3" s="201"/>
       <c r="B3" s="105"/>
       <c r="C3" s="55" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D3" s="55" t="s">
         <v>22</v>
@@ -7546,7 +7636,7 @@
       <c r="A4" s="201"/>
       <c r="B4" s="105"/>
       <c r="C4" s="55" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D4" s="55" t="s">
         <v>23</v>
@@ -7584,7 +7674,7 @@
       <c r="A6" s="201"/>
       <c r="B6" s="105"/>
       <c r="C6" s="55" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D6" s="55" t="s">
         <v>47</v>
@@ -7603,7 +7693,7 @@
       <c r="A7" s="201"/>
       <c r="B7" s="105"/>
       <c r="C7" s="55" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D7" s="55" t="s">
         <v>48</v>
@@ -7622,7 +7712,7 @@
       <c r="A8" s="201"/>
       <c r="B8" s="105"/>
       <c r="C8" s="55" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D8" s="55" t="s">
         <v>49</v>
@@ -7641,7 +7731,7 @@
       <c r="A9" s="202"/>
       <c r="B9" s="203"/>
       <c r="C9" s="55" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D9" s="55" t="s">
         <v>50</v>
@@ -7681,47 +7771,47 @@
     <mergeCell ref="J2:J9"/>
   </mergeCells>
   <conditionalFormatting sqref="E2:E9">
-    <cfRule type="cellIs" dxfId="64" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="21" operator="equal">
       <formula>"Ready To Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="22" operator="equal">
       <formula>"Ready To Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="23" operator="equal">
       <formula>"Block/Skip"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="24" operator="equal">
       <formula>"Ready To Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="25" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="26" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J9">
-    <cfRule type="cellIs" dxfId="58" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="10" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="11" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="12" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="13" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K9">
-    <cfRule type="cellIs" dxfId="54" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="7" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="8" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="9" operator="equal">
       <formula>"High"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7768,28 +7858,28 @@
   <sheetData>
     <row r="1" spans="1:11" s="89" customFormat="1" ht="56" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="36" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C1" s="50" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D1" s="38" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F1" s="41" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="G1" s="52" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="H1" s="51" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="I1" s="40" t="s">
         <v>30</v>
@@ -7803,13 +7893,13 @@
     </row>
     <row r="2" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="108" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B2" s="117" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C2" s="53" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D2" s="53" t="s">
         <v>1</v>
@@ -7828,7 +7918,7 @@
       <c r="A3" s="109"/>
       <c r="B3" s="118"/>
       <c r="C3" s="53" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D3" s="53" t="s">
         <v>22</v>
@@ -7847,10 +7937,10 @@
       <c r="A4" s="109"/>
       <c r="B4" s="118"/>
       <c r="C4" s="53" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D4" s="53" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E4" s="20" t="s">
         <v>2</v>
@@ -7866,10 +7956,10 @@
       <c r="A5" s="109"/>
       <c r="B5" s="118"/>
       <c r="C5" s="53" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D5" s="53" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E5" s="20" t="s">
         <v>2</v>
@@ -7885,10 +7975,10 @@
       <c r="A6" s="109"/>
       <c r="B6" s="118"/>
       <c r="C6" s="53" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D6" s="53" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="E6" s="20" t="s">
         <v>2</v>
@@ -7904,10 +7994,10 @@
       <c r="A7" s="109"/>
       <c r="B7" s="118"/>
       <c r="C7" s="54" t="s">
+        <v>184</v>
+      </c>
+      <c r="D7" s="53" t="s">
         <v>189</v>
-      </c>
-      <c r="D7" s="53" t="s">
-        <v>194</v>
       </c>
       <c r="E7" s="20" t="s">
         <v>2</v>
@@ -7923,10 +8013,10 @@
       <c r="A8" s="109"/>
       <c r="B8" s="118"/>
       <c r="C8" s="53" t="s">
+        <v>185</v>
+      </c>
+      <c r="D8" s="53" t="s">
         <v>190</v>
-      </c>
-      <c r="D8" s="53" t="s">
-        <v>195</v>
       </c>
       <c r="E8" s="20" t="s">
         <v>2</v>
@@ -7942,10 +8032,10 @@
       <c r="A9" s="110"/>
       <c r="B9" s="119"/>
       <c r="C9" s="53" t="s">
+        <v>186</v>
+      </c>
+      <c r="D9" s="53" t="s">
         <v>191</v>
-      </c>
-      <c r="D9" s="53" t="s">
-        <v>196</v>
       </c>
       <c r="E9" s="20" t="s">
         <v>2</v>
@@ -7981,47 +8071,47 @@
     <mergeCell ref="J2:J9"/>
   </mergeCells>
   <conditionalFormatting sqref="E2:E9 G2:G9">
-    <cfRule type="cellIs" dxfId="51" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="21" operator="equal">
       <formula>"Ready To Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="22" operator="equal">
       <formula>"Ready To Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="23" operator="equal">
       <formula>"Block/Skip"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="24" operator="equal">
       <formula>"Ready To Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="25" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="26" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J9">
-    <cfRule type="cellIs" dxfId="45" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="17" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="18" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="19" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="20" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K9">
-    <cfRule type="cellIs" dxfId="41" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="14" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="15" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="16" operator="equal">
       <formula>"High"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8069,28 +8159,28 @@
   <sheetData>
     <row r="1" spans="1:11" s="89" customFormat="1" ht="56" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="36" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C1" s="50" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D1" s="38" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F1" s="41" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="G1" s="52" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="H1" s="51" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="I1" s="40" t="s">
         <v>30</v>
@@ -8104,13 +8194,13 @@
     </row>
     <row r="2" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="108" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B2" s="204" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C2" s="53" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D2" s="53" t="s">
         <v>1</v>
@@ -8129,7 +8219,7 @@
       <c r="A3" s="109"/>
       <c r="B3" s="118"/>
       <c r="C3" s="53" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D3" s="53" t="s">
         <v>22</v>
@@ -8148,10 +8238,10 @@
       <c r="A4" s="109"/>
       <c r="B4" s="118"/>
       <c r="C4" s="53" t="s">
+        <v>171</v>
+      </c>
+      <c r="D4" s="53" t="s">
         <v>176</v>
-      </c>
-      <c r="D4" s="53" t="s">
-        <v>181</v>
       </c>
       <c r="E4" s="20" t="s">
         <v>2</v>
@@ -8167,10 +8257,10 @@
       <c r="A5" s="109"/>
       <c r="B5" s="118"/>
       <c r="C5" s="53" t="s">
+        <v>172</v>
+      </c>
+      <c r="D5" s="53" t="s">
         <v>177</v>
-      </c>
-      <c r="D5" s="53" t="s">
-        <v>182</v>
       </c>
       <c r="E5" s="20" t="s">
         <v>2</v>
@@ -8186,10 +8276,10 @@
       <c r="A6" s="109"/>
       <c r="B6" s="118"/>
       <c r="C6" s="54" t="s">
+        <v>173</v>
+      </c>
+      <c r="D6" s="53" t="s">
         <v>178</v>
-      </c>
-      <c r="D6" s="53" t="s">
-        <v>183</v>
       </c>
       <c r="E6" s="20" t="s">
         <v>2</v>
@@ -8205,10 +8295,10 @@
       <c r="A7" s="109"/>
       <c r="B7" s="118"/>
       <c r="C7" s="53" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D7" s="53" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E7" s="20" t="s">
         <v>2</v>
@@ -8224,10 +8314,10 @@
       <c r="A8" s="109"/>
       <c r="B8" s="118"/>
       <c r="C8" s="53" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D8" s="53" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E8" s="20" t="s">
         <v>2</v>
@@ -8263,47 +8353,47 @@
     <mergeCell ref="I2:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="E2:E8 G2:G8">
-    <cfRule type="cellIs" dxfId="38" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="21" operator="equal">
       <formula>"Ready To Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="22" operator="equal">
       <formula>"Ready To Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="23" operator="equal">
       <formula>"Block/Skip"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="24" operator="equal">
       <formula>"Ready To Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="25" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="26" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J8">
-    <cfRule type="cellIs" dxfId="32" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="17" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="18" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="19" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="20" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K8">
-    <cfRule type="cellIs" dxfId="28" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="14" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="15" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="16" operator="equal">
       <formula>"High"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8351,28 +8441,28 @@
   <sheetData>
     <row r="1" spans="1:11" s="89" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="36" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C1" s="42" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D1" s="38" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F1" s="41" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="G1" s="52" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="H1" s="51" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="I1" s="40" t="s">
         <v>30</v>
@@ -8386,13 +8476,13 @@
     </row>
     <row r="2" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="205" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B2" s="117" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C2" s="53" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D2" s="53" t="s">
         <v>1</v>
@@ -8401,7 +8491,7 @@
         <v>2</v>
       </c>
       <c r="F2" s="123" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G2" s="111"/>
       <c r="H2" s="111"/>
@@ -8413,7 +8503,7 @@
       <c r="A3" s="206"/>
       <c r="B3" s="118"/>
       <c r="C3" s="53" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D3" s="53" t="s">
         <v>22</v>
@@ -8432,10 +8522,10 @@
       <c r="A4" s="206"/>
       <c r="B4" s="118"/>
       <c r="C4" s="53" t="s">
+        <v>161</v>
+      </c>
+      <c r="D4" s="53" t="s">
         <v>166</v>
-      </c>
-      <c r="D4" s="53" t="s">
-        <v>171</v>
       </c>
       <c r="E4" s="20" t="s">
         <v>2</v>
@@ -8451,10 +8541,10 @@
       <c r="A5" s="206"/>
       <c r="B5" s="118"/>
       <c r="C5" s="53" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D5" s="53" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E5" s="20" t="s">
         <v>2</v>
@@ -8470,10 +8560,10 @@
       <c r="A6" s="206"/>
       <c r="B6" s="118"/>
       <c r="C6" s="53" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D6" s="53" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E6" s="20" t="s">
         <v>2</v>
@@ -8489,10 +8579,10 @@
       <c r="A7" s="206"/>
       <c r="B7" s="118"/>
       <c r="C7" s="53" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D7" s="53" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E7" s="20" t="s">
         <v>2</v>
@@ -8529,47 +8619,47 @@
     <mergeCell ref="H2:H7"/>
   </mergeCells>
   <conditionalFormatting sqref="E2:E7">
-    <cfRule type="cellIs" dxfId="25" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="8" operator="equal">
       <formula>"Ready To Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="9" operator="equal">
       <formula>"Ready To Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="10" operator="equal">
       <formula>"Block/Skip"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="11" operator="equal">
       <formula>"Ready To Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="12" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="13" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J7">
-    <cfRule type="cellIs" dxfId="19" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="4" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="5" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="6" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="7" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K7">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="1" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="2" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="3" operator="equal">
       <formula>"High"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8617,28 +8707,28 @@
   <sheetData>
     <row r="1" spans="1:11" s="89" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="36" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C1" s="42" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D1" s="38" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F1" s="41" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="G1" s="52" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="H1" s="51" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="I1" s="40" t="s">
         <v>30</v>
@@ -8652,13 +8742,13 @@
     </row>
     <row r="2" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="205" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B2" s="207" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C2" s="53" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D2" s="53" t="s">
         <v>1</v>
@@ -8667,7 +8757,7 @@
         <v>2</v>
       </c>
       <c r="F2" s="123" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="G2" s="111"/>
       <c r="H2" s="111"/>
@@ -8679,7 +8769,7 @@
       <c r="A3" s="206"/>
       <c r="B3" s="118"/>
       <c r="C3" s="53" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D3" s="53" t="s">
         <v>22</v>
@@ -8698,10 +8788,10 @@
       <c r="A4" s="206"/>
       <c r="B4" s="118"/>
       <c r="C4" s="69" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="D4" s="53" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="E4" s="19" t="s">
         <v>2</v>
@@ -8717,10 +8807,10 @@
       <c r="A5" s="206"/>
       <c r="B5" s="118"/>
       <c r="C5" s="53" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D5" s="53" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="E5" s="19" t="s">
         <v>2</v>
@@ -8736,10 +8826,10 @@
       <c r="A6" s="206"/>
       <c r="B6" s="118"/>
       <c r="C6" s="53" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="D6" s="53" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="E6" s="19" t="s">
         <v>2</v>
@@ -8755,10 +8845,10 @@
       <c r="A7" s="206"/>
       <c r="B7" s="118"/>
       <c r="C7" s="53" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D7" s="53" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="E7" s="19" t="s">
         <v>2</v>
@@ -8774,10 +8864,10 @@
       <c r="A8" s="206"/>
       <c r="B8" s="118"/>
       <c r="C8" s="53" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D8" s="53" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="E8" s="19" t="s">
         <v>2</v>
@@ -8814,47 +8904,47 @@
     <mergeCell ref="I2:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="E2:E8">
-    <cfRule type="cellIs" dxfId="12" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="8" operator="equal">
       <formula>"Ready To Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="9" operator="equal">
       <formula>"Ready To Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="10" operator="equal">
       <formula>"Block/Skip"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="11" operator="equal">
       <formula>"Ready To Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="12" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J8">
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K8">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
       <formula>"High"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8902,28 +8992,28 @@
   <sheetData>
     <row r="1" spans="1:11" s="89" customFormat="1" ht="56" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="36" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C1" s="50" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D1" s="38" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F1" s="41" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="G1" s="52" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="H1" s="51" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="I1" s="40" t="s">
         <v>30</v>
@@ -8943,7 +9033,7 @@
         <v>28</v>
       </c>
       <c r="C2" s="53" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D2" s="53" t="s">
         <v>1</v>
@@ -8962,7 +9052,7 @@
       <c r="A3" s="109"/>
       <c r="B3" s="118"/>
       <c r="C3" s="53" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D3" s="53" t="s">
         <v>22</v>
@@ -8981,7 +9071,7 @@
       <c r="A4" s="109"/>
       <c r="B4" s="118"/>
       <c r="C4" s="53" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D4" s="53" t="s">
         <v>23</v>
@@ -9000,7 +9090,7 @@
       <c r="A5" s="109"/>
       <c r="B5" s="118"/>
       <c r="C5" s="53" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D5" s="53" t="s">
         <v>24</v>
@@ -9019,7 +9109,7 @@
       <c r="A6" s="109"/>
       <c r="B6" s="118"/>
       <c r="C6" s="54" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D6" s="53" t="s">
         <v>25</v>
@@ -9038,7 +9128,7 @@
       <c r="A7" s="109"/>
       <c r="B7" s="118"/>
       <c r="C7" s="53" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D7" s="53" t="s">
         <v>26</v>
@@ -9057,7 +9147,7 @@
       <c r="A8" s="109"/>
       <c r="B8" s="118"/>
       <c r="C8" s="53" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D8" s="53" t="s">
         <v>51</v>
@@ -9076,7 +9166,7 @@
       <c r="A9" s="110"/>
       <c r="B9" s="119"/>
       <c r="C9" s="53" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D9" s="53" t="s">
         <v>35</v>
@@ -9112,7 +9202,7 @@
         <v>29</v>
       </c>
       <c r="C11" s="55" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D11" s="55" t="s">
         <v>1</v>
@@ -9126,7 +9216,7 @@
         <v>31</v>
       </c>
       <c r="I11" s="128" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="J11" s="126" t="s">
         <v>11</v>
@@ -9139,7 +9229,7 @@
       <c r="A12" s="103"/>
       <c r="B12" s="105"/>
       <c r="C12" s="55" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D12" s="55" t="s">
         <v>22</v>
@@ -9158,7 +9248,7 @@
       <c r="A13" s="103"/>
       <c r="B13" s="105"/>
       <c r="C13" s="55" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D13" s="55" t="s">
         <v>23</v>
@@ -9177,7 +9267,7 @@
       <c r="A14" s="103"/>
       <c r="B14" s="105"/>
       <c r="C14" s="55" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D14" s="55" t="s">
         <v>24</v>
@@ -9196,7 +9286,7 @@
       <c r="A15" s="103"/>
       <c r="B15" s="105"/>
       <c r="C15" s="56" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D15" s="55" t="s">
         <v>25</v>
@@ -9215,7 +9305,7 @@
       <c r="A16" s="103"/>
       <c r="B16" s="105"/>
       <c r="C16" s="55" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D16" s="55" t="s">
         <v>52</v>
@@ -9234,10 +9324,10 @@
       <c r="A17" s="103"/>
       <c r="B17" s="105"/>
       <c r="C17" s="55" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D17" s="55" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E17" s="19" t="s">
         <v>2</v>
@@ -9253,7 +9343,7 @@
       <c r="A18" s="103"/>
       <c r="B18" s="105"/>
       <c r="C18" s="55" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D18" s="55" t="s">
         <v>32</v>
@@ -9272,7 +9362,7 @@
       <c r="A19" s="103"/>
       <c r="B19" s="105"/>
       <c r="C19" s="55" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D19" s="55" t="s">
         <v>34</v>
@@ -9318,47 +9408,47 @@
     <mergeCell ref="I11:I19"/>
   </mergeCells>
   <conditionalFormatting sqref="E2:E9 E11:E19 G11:G19 G2:G9">
-    <cfRule type="cellIs" dxfId="258" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="264" priority="89" operator="equal">
       <formula>"Ready To Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="257" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="263" priority="90" operator="equal">
       <formula>"Ready To Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="256" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="262" priority="91" operator="equal">
       <formula>"Block/Skip"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="255" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="261" priority="92" operator="equal">
       <formula>"Ready To Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="254" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="260" priority="93" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="253" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="259" priority="94" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J9 J11:J19">
-    <cfRule type="cellIs" dxfId="252" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="258" priority="55" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="251" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="56" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="250" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="256" priority="57" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="249" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="255" priority="58" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K9 K11:K19">
-    <cfRule type="cellIs" dxfId="248" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="1" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="247" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="2" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="246" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="3" operator="equal">
       <formula>"High"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9406,28 +9496,28 @@
   <sheetData>
     <row r="1" spans="1:11" s="89" customFormat="1" ht="56" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="36" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C1" s="50" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D1" s="38" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F1" s="41" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="G1" s="52" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="H1" s="51" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="I1" s="40" t="s">
         <v>30</v>
@@ -9444,10 +9534,10 @@
         <v>5</v>
       </c>
       <c r="B2" s="130" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C2" s="68" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D2" s="69" t="s">
         <v>1</v>
@@ -9466,7 +9556,7 @@
       <c r="A3" s="109"/>
       <c r="B3" s="118"/>
       <c r="C3" s="69" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D3" s="69" t="s">
         <v>22</v>
@@ -9485,7 +9575,7 @@
       <c r="A4" s="109"/>
       <c r="B4" s="118"/>
       <c r="C4" s="69" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D4" s="69" t="s">
         <v>23</v>
@@ -9504,7 +9594,7 @@
       <c r="A5" s="109"/>
       <c r="B5" s="118"/>
       <c r="C5" s="69" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D5" s="69" t="s">
         <v>24</v>
@@ -9523,7 +9613,7 @@
       <c r="A6" s="109"/>
       <c r="B6" s="118"/>
       <c r="C6" s="69" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D6" s="69" t="s">
         <v>25</v>
@@ -9542,7 +9632,7 @@
       <c r="A7" s="109"/>
       <c r="B7" s="118"/>
       <c r="C7" s="69" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D7" s="69" t="s">
         <v>37</v>
@@ -9561,7 +9651,7 @@
       <c r="A8" s="109"/>
       <c r="B8" s="118"/>
       <c r="C8" s="69" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D8" s="69" t="s">
         <v>35</v>
@@ -9580,10 +9670,10 @@
       <c r="A9" s="109"/>
       <c r="B9" s="118"/>
       <c r="C9" s="69" t="s">
+        <v>268</v>
+      </c>
+      <c r="D9" s="53" t="s">
         <v>273</v>
-      </c>
-      <c r="D9" s="53" t="s">
-        <v>278</v>
       </c>
       <c r="E9" s="20" t="s">
         <v>2</v>
@@ -9599,10 +9689,10 @@
       <c r="A10" s="109"/>
       <c r="B10" s="118"/>
       <c r="C10" s="69" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D10" s="53" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="E10" s="20" t="s">
         <v>2</v>
@@ -9618,10 +9708,10 @@
       <c r="A11" s="109"/>
       <c r="B11" s="118"/>
       <c r="C11" s="53" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D11" s="53" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="E11" s="20" t="s">
         <v>2</v>
@@ -9637,10 +9727,10 @@
       <c r="A12" s="109"/>
       <c r="B12" s="118"/>
       <c r="C12" s="53" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="D12" s="53" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="E12" s="20" t="s">
         <v>2</v>
@@ -9656,10 +9746,10 @@
       <c r="A13" s="109"/>
       <c r="B13" s="118"/>
       <c r="C13" s="53" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="D13" s="53" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="E13" s="20" t="s">
         <v>2</v>
@@ -9675,10 +9765,10 @@
       <c r="A14" s="109"/>
       <c r="B14" s="118"/>
       <c r="C14" s="53" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D14" s="53" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="E14" s="20" t="s">
         <v>2</v>
@@ -9694,10 +9784,10 @@
       <c r="A15" s="109"/>
       <c r="B15" s="118"/>
       <c r="C15" s="53" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D15" s="53" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="E15" s="20" t="s">
         <v>2</v>
@@ -9713,10 +9803,10 @@
       <c r="A16" s="109"/>
       <c r="B16" s="118"/>
       <c r="C16" s="53" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D16" s="53" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="E16" s="20" t="s">
         <v>2</v>
@@ -9732,10 +9822,10 @@
       <c r="A17" s="109"/>
       <c r="B17" s="118"/>
       <c r="C17" s="53" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D17" s="53" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E17" s="20" t="s">
         <v>2</v>
@@ -9771,47 +9861,47 @@
     <mergeCell ref="J2:J17"/>
   </mergeCells>
   <conditionalFormatting sqref="G2:G17 E2:E17">
-    <cfRule type="cellIs" dxfId="245" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="251" priority="8" operator="equal">
       <formula>"Ready To Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="244" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="250" priority="9" operator="equal">
       <formula>"Ready To Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="243" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="10" operator="equal">
       <formula>"Block/Skip"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="242" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="11" operator="equal">
       <formula>"Ready To Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="241" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="247" priority="12" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="240" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="13" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J17">
-    <cfRule type="cellIs" dxfId="239" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="4" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="238" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="5" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="237" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="243" priority="6" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="236" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="7" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K17">
-    <cfRule type="cellIs" dxfId="235" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="1" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="234" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="2" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="233" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="3" operator="equal">
       <formula>"High"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9839,7 +9929,7 @@
   </sheetPr>
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B15" zoomScale="115" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScale="115" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -9859,28 +9949,28 @@
   <sheetData>
     <row r="1" spans="1:11" s="89" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="36" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C1" s="42" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D1" s="32" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F1" s="41" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="G1" s="52" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="H1" s="51" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="I1" s="35" t="s">
         <v>30</v>
@@ -9900,7 +9990,7 @@
         <v>39</v>
       </c>
       <c r="C2" s="68" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D2" s="69" t="s">
         <v>1</v>
@@ -9927,7 +10017,7 @@
       <c r="A3" s="148"/>
       <c r="B3" s="151"/>
       <c r="C3" s="69" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D3" s="69" t="s">
         <v>22</v>
@@ -9946,7 +10036,7 @@
       <c r="A4" s="148"/>
       <c r="B4" s="151"/>
       <c r="C4" s="69" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D4" s="69" t="s">
         <v>23</v>
@@ -9965,7 +10055,7 @@
       <c r="A5" s="148"/>
       <c r="B5" s="151"/>
       <c r="C5" s="69" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D5" s="69" t="s">
         <v>24</v>
@@ -9984,7 +10074,7 @@
       <c r="A6" s="148"/>
       <c r="B6" s="151"/>
       <c r="C6" s="69" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D6" s="69" t="s">
         <v>25</v>
@@ -10003,7 +10093,7 @@
       <c r="A7" s="148"/>
       <c r="B7" s="151"/>
       <c r="C7" s="69" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D7" s="69" t="s">
         <v>37</v>
@@ -10022,7 +10112,7 @@
       <c r="A8" s="148"/>
       <c r="B8" s="151"/>
       <c r="C8" s="69" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D8" s="69" t="s">
         <v>35</v>
@@ -10041,7 +10131,7 @@
       <c r="A9" s="148"/>
       <c r="B9" s="151"/>
       <c r="C9" s="69" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D9" s="69" t="s">
         <v>41</v>
@@ -10060,7 +10150,7 @@
       <c r="A10" s="148"/>
       <c r="B10" s="151"/>
       <c r="C10" s="69" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D10" s="69" t="s">
         <v>42</v>
@@ -10079,10 +10169,10 @@
       <c r="A11" s="149"/>
       <c r="B11" s="152"/>
       <c r="C11" s="69" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D11" s="69" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>2</v>
@@ -10115,7 +10205,7 @@
         <v>40</v>
       </c>
       <c r="C13" s="70" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D13" s="71" t="s">
         <v>1</v>
@@ -10142,7 +10232,7 @@
       <c r="A14" s="139"/>
       <c r="B14" s="141"/>
       <c r="C14" s="71" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D14" s="71" t="s">
         <v>22</v>
@@ -10161,7 +10251,7 @@
       <c r="A15" s="139"/>
       <c r="B15" s="141"/>
       <c r="C15" s="71" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D15" s="71" t="s">
         <v>23</v>
@@ -10180,7 +10270,7 @@
       <c r="A16" s="139"/>
       <c r="B16" s="141"/>
       <c r="C16" s="71" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D16" s="71" t="s">
         <v>24</v>
@@ -10199,7 +10289,7 @@
       <c r="A17" s="139"/>
       <c r="B17" s="141"/>
       <c r="C17" s="71" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D17" s="71" t="s">
         <v>25</v>
@@ -10218,7 +10308,7 @@
       <c r="A18" s="139"/>
       <c r="B18" s="141"/>
       <c r="C18" s="71" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D18" s="71" t="s">
         <v>38</v>
@@ -10237,7 +10327,7 @@
       <c r="A19" s="139"/>
       <c r="B19" s="141"/>
       <c r="C19" s="71" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D19" s="71" t="s">
         <v>36</v>
@@ -10256,7 +10346,7 @@
       <c r="A20" s="139"/>
       <c r="B20" s="141"/>
       <c r="C20" s="71" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D20" s="71" t="s">
         <v>41</v>
@@ -10275,7 +10365,7 @@
       <c r="A21" s="139"/>
       <c r="B21" s="141"/>
       <c r="C21" s="71" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D21" s="71" t="s">
         <v>42</v>
@@ -10294,10 +10384,10 @@
       <c r="A22" s="139"/>
       <c r="B22" s="141"/>
       <c r="C22" s="71" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D22" s="71" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>2</v>
@@ -10342,112 +10432,112 @@
     <mergeCell ref="I2:I11"/>
   </mergeCells>
   <conditionalFormatting sqref="E2:E11">
-    <cfRule type="cellIs" dxfId="232" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="27" operator="equal">
       <formula>"Ready To Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="231" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="28" operator="equal">
       <formula>"Ready To Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="230" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="29" operator="equal">
       <formula>"Block/Skip"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="229" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="30" operator="equal">
       <formula>"Ready To Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="228" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="31" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="227" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="32" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13:E19">
-    <cfRule type="cellIs" dxfId="226" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="21" operator="equal">
       <formula>"Ready To Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="225" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="22" operator="equal">
       <formula>"Ready To Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="224" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="23" operator="equal">
       <formula>"Block/Skip"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="223" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="24" operator="equal">
       <formula>"Ready To Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="25" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="221" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="26" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2">
-    <cfRule type="cellIs" dxfId="220" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="17" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="219" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="18" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="218" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="19" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="217" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="20" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13">
-    <cfRule type="cellIs" dxfId="216" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="13" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="215" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="14" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="15" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="213" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="16" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2">
-    <cfRule type="cellIs" dxfId="212" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="10" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="211" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="11" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="210" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="12" operator="equal">
       <formula>"High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13">
-    <cfRule type="cellIs" dxfId="209" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="7" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="208" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="8" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="207" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="9" operator="equal">
       <formula>"High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20:E22">
-    <cfRule type="cellIs" dxfId="206" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="1" operator="equal">
       <formula>"Ready To Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="205" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="2" operator="equal">
       <formula>"Ready To Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="204" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="3" operator="equal">
       <formula>"Block/Skip"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="203" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="4" operator="equal">
       <formula>"Ready To Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="5" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="201" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="6" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10493,28 +10583,28 @@
   <sheetData>
     <row r="1" spans="1:11" s="89" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="36" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C1" s="42" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D1" s="32" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F1" s="41" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="G1" s="52" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="H1" s="51" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="I1" s="35" t="s">
         <v>30</v>
@@ -10534,7 +10624,7 @@
         <v>55</v>
       </c>
       <c r="C2" s="68" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D2" s="69" t="s">
         <v>1</v>
@@ -10553,7 +10643,7 @@
       <c r="A3" s="148"/>
       <c r="B3" s="151"/>
       <c r="C3" s="69" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D3" s="69" t="s">
         <v>22</v>
@@ -10572,7 +10662,7 @@
       <c r="A4" s="148"/>
       <c r="B4" s="151"/>
       <c r="C4" s="69" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D4" s="69" t="s">
         <v>23</v>
@@ -10591,7 +10681,7 @@
       <c r="A5" s="148"/>
       <c r="B5" s="151"/>
       <c r="C5" s="69" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D5" s="69" t="s">
         <v>24</v>
@@ -10610,7 +10700,7 @@
       <c r="A6" s="148"/>
       <c r="B6" s="151"/>
       <c r="C6" s="69" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D6" s="69" t="s">
         <v>25</v>
@@ -10629,7 +10719,7 @@
       <c r="A7" s="148"/>
       <c r="B7" s="151"/>
       <c r="C7" s="69" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D7" s="69" t="s">
         <v>37</v>
@@ -10648,7 +10738,7 @@
       <c r="A8" s="148"/>
       <c r="B8" s="151"/>
       <c r="C8" s="69" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="D8" s="69" t="s">
         <v>57</v>
@@ -10667,7 +10757,7 @@
       <c r="A9" s="148"/>
       <c r="B9" s="151"/>
       <c r="C9" s="69" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D9" s="69" t="s">
         <v>56</v>
@@ -10686,7 +10776,7 @@
       <c r="A10" s="148"/>
       <c r="B10" s="151"/>
       <c r="C10" s="69" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D10" s="69" t="s">
         <v>58</v>
@@ -10705,7 +10795,7 @@
       <c r="A11" s="148"/>
       <c r="B11" s="151"/>
       <c r="C11" s="69" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D11" s="69" t="s">
         <v>61</v>
@@ -10724,10 +10814,10 @@
       <c r="A12" s="148"/>
       <c r="B12" s="151"/>
       <c r="C12" s="69" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D12" s="69" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>2</v>
@@ -10743,10 +10833,10 @@
       <c r="A13" s="148"/>
       <c r="B13" s="151"/>
       <c r="C13" s="69" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D13" s="69" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>2</v>
@@ -10762,10 +10852,10 @@
       <c r="A14" s="148"/>
       <c r="B14" s="151"/>
       <c r="C14" s="69" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D14" s="69" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>2</v>
@@ -10781,10 +10871,10 @@
       <c r="A15" s="148"/>
       <c r="B15" s="151"/>
       <c r="C15" s="69" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D15" s="69" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>2</v>
@@ -10800,10 +10890,10 @@
       <c r="A16" s="148"/>
       <c r="B16" s="151"/>
       <c r="C16" s="69" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D16" s="69" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>2</v>
@@ -10819,7 +10909,7 @@
       <c r="A17" s="148"/>
       <c r="B17" s="151"/>
       <c r="C17" s="69" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D17" s="69" t="s">
         <v>59</v>
@@ -10838,7 +10928,7 @@
       <c r="A18" s="148"/>
       <c r="B18" s="151"/>
       <c r="C18" s="69" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D18" s="69" t="s">
         <v>60</v>
@@ -10857,7 +10947,7 @@
       <c r="A19" s="149"/>
       <c r="B19" s="152"/>
       <c r="C19" s="69" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D19" s="69" t="s">
         <v>56</v>
@@ -10890,10 +10980,10 @@
         <v>54</v>
       </c>
       <c r="B21" s="161" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C21" s="70" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D21" s="71" t="s">
         <v>1</v>
@@ -10904,7 +10994,7 @@
       <c r="F21" s="163"/>
       <c r="G21" s="81"/>
       <c r="H21" s="168" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="I21" s="170"/>
       <c r="J21" s="153" t="s">
@@ -10918,7 +11008,7 @@
       <c r="A22" s="139"/>
       <c r="B22" s="162"/>
       <c r="C22" s="71" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D22" s="71" t="s">
         <v>22</v>
@@ -10937,7 +11027,7 @@
       <c r="A23" s="139"/>
       <c r="B23" s="162"/>
       <c r="C23" s="71" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D23" s="71" t="s">
         <v>57</v>
@@ -10956,7 +11046,7 @@
       <c r="A24" s="139"/>
       <c r="B24" s="162"/>
       <c r="C24" s="71" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D24" s="71" t="s">
         <v>56</v>
@@ -10975,7 +11065,7 @@
       <c r="A25" s="139"/>
       <c r="B25" s="162"/>
       <c r="C25" s="71" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D25" s="71" t="s">
         <v>58</v>
@@ -10994,7 +11084,7 @@
       <c r="A26" s="139"/>
       <c r="B26" s="162"/>
       <c r="C26" s="71" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D26" s="71" t="s">
         <v>61</v>
@@ -11013,10 +11103,10 @@
       <c r="A27" s="139"/>
       <c r="B27" s="162"/>
       <c r="C27" s="71" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D27" s="71" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>2</v>
@@ -11032,10 +11122,10 @@
       <c r="A28" s="139"/>
       <c r="B28" s="162"/>
       <c r="C28" s="71" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D28" s="71" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>2</v>
@@ -11051,10 +11141,10 @@
       <c r="A29" s="139"/>
       <c r="B29" s="162"/>
       <c r="C29" s="71" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D29" s="71" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>2</v>
@@ -11070,10 +11160,10 @@
       <c r="A30" s="139"/>
       <c r="B30" s="162"/>
       <c r="C30" s="71" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D30" s="71" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>2</v>
@@ -11089,10 +11179,10 @@
       <c r="A31" s="139"/>
       <c r="B31" s="162"/>
       <c r="C31" s="71" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="D31" s="71" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>2</v>
@@ -11108,7 +11198,7 @@
       <c r="A32" s="139"/>
       <c r="B32" s="162"/>
       <c r="C32" s="71" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D32" s="71" t="s">
         <v>59</v>
@@ -11127,7 +11217,7 @@
       <c r="A33" s="139"/>
       <c r="B33" s="162"/>
       <c r="C33" s="71" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D33" s="71" t="s">
         <v>60</v>
@@ -11146,7 +11236,7 @@
       <c r="A34" s="139"/>
       <c r="B34" s="162"/>
       <c r="C34" s="71" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D34" s="71" t="s">
         <v>56</v>
@@ -11202,92 +11292,92 @@
     <mergeCell ref="J21:J34"/>
   </mergeCells>
   <conditionalFormatting sqref="E2:E19">
-    <cfRule type="cellIs" dxfId="200" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="27" operator="equal">
       <formula>"Ready To Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="199" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="28" operator="equal">
       <formula>"Ready To Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="29" operator="equal">
       <formula>"Block/Skip"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="197" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="30" operator="equal">
       <formula>"Ready To Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="31" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="195" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="32" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21:E34">
-    <cfRule type="cellIs" dxfId="194" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="21" operator="equal">
       <formula>"Ready To Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="22" operator="equal">
       <formula>"Ready To Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="23" operator="equal">
       <formula>"Block/Skip"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="191" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="24" operator="equal">
       <formula>"Ready To Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="25" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="26" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2">
-    <cfRule type="cellIs" dxfId="188" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="17" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="187" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="18" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="19" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="185" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="20" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J21">
-    <cfRule type="cellIs" dxfId="184" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="13" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="183" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="14" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="182" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="15" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="16" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2">
-    <cfRule type="cellIs" dxfId="180" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="10" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="179" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="11" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="12" operator="equal">
       <formula>"High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K21">
-    <cfRule type="cellIs" dxfId="177" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="7" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="8" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="175" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="9" operator="equal">
       <formula>"High"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11312,10 +11402,10 @@
   <sheetPr>
     <tabColor theme="4" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:K54"/>
+  <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B40" sqref="B40:B53"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40:B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -11333,28 +11423,28 @@
   <sheetData>
     <row r="1" spans="1:11" s="89" customFormat="1" ht="49" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="36" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C1" s="42" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D1" s="32" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F1" s="41" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="G1" s="52" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="H1" s="51" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="I1" s="35" t="s">
         <v>30</v>
@@ -11368,13 +11458,13 @@
     </row>
     <row r="2" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="147" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="150" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="150" t="s">
-        <v>71</v>
-      </c>
       <c r="C2" s="68" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D2" s="69" t="s">
         <v>1</v>
@@ -11382,8 +11472,8 @@
       <c r="E2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="176" t="s">
-        <v>163</v>
+      <c r="F2" s="172" t="s">
+        <v>158</v>
       </c>
       <c r="G2" s="114"/>
       <c r="H2" s="97"/>
@@ -11395,7 +11485,7 @@
       <c r="A3" s="148"/>
       <c r="B3" s="151"/>
       <c r="C3" s="69" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D3" s="69" t="s">
         <v>22</v>
@@ -11403,7 +11493,7 @@
       <c r="E3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="177"/>
+      <c r="F3" s="173"/>
       <c r="G3" s="115"/>
       <c r="H3" s="98"/>
       <c r="I3" s="166"/>
@@ -11414,7 +11504,7 @@
       <c r="A4" s="148"/>
       <c r="B4" s="151"/>
       <c r="C4" s="69" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D4" s="69" t="s">
         <v>23</v>
@@ -11422,7 +11512,7 @@
       <c r="E4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="177"/>
+      <c r="F4" s="173"/>
       <c r="G4" s="115"/>
       <c r="H4" s="98"/>
       <c r="I4" s="166"/>
@@ -11433,7 +11523,7 @@
       <c r="A5" s="148"/>
       <c r="B5" s="151"/>
       <c r="C5" s="69" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D5" s="69" t="s">
         <v>24</v>
@@ -11441,7 +11531,7 @@
       <c r="E5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="177"/>
+      <c r="F5" s="173"/>
       <c r="G5" s="115"/>
       <c r="H5" s="98"/>
       <c r="I5" s="166"/>
@@ -11452,7 +11542,7 @@
       <c r="A6" s="148"/>
       <c r="B6" s="151"/>
       <c r="C6" s="69" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D6" s="69" t="s">
         <v>25</v>
@@ -11460,7 +11550,7 @@
       <c r="E6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="177"/>
+      <c r="F6" s="173"/>
       <c r="G6" s="115"/>
       <c r="H6" s="98"/>
       <c r="I6" s="166"/>
@@ -11471,7 +11561,7 @@
       <c r="A7" s="148"/>
       <c r="B7" s="151"/>
       <c r="C7" s="69" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D7" s="69" t="s">
         <v>37</v>
@@ -11479,7 +11569,7 @@
       <c r="E7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="177"/>
+      <c r="F7" s="173"/>
       <c r="G7" s="115"/>
       <c r="H7" s="98"/>
       <c r="I7" s="166"/>
@@ -11490,15 +11580,15 @@
       <c r="A8" s="148"/>
       <c r="B8" s="151"/>
       <c r="C8" s="69" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D8" s="69" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="177"/>
+      <c r="F8" s="173"/>
       <c r="G8" s="115"/>
       <c r="H8" s="98"/>
       <c r="I8" s="166"/>
@@ -11509,15 +11599,15 @@
       <c r="A9" s="148"/>
       <c r="B9" s="151"/>
       <c r="C9" s="69" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D9" s="69" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="177"/>
+      <c r="F9" s="173"/>
       <c r="G9" s="115"/>
       <c r="H9" s="98"/>
       <c r="I9" s="166"/>
@@ -11528,7 +11618,7 @@
       <c r="A10" s="148"/>
       <c r="B10" s="151"/>
       <c r="C10" s="69" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D10" s="69" t="s">
         <v>58</v>
@@ -11536,7 +11626,7 @@
       <c r="E10" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="177"/>
+      <c r="F10" s="173"/>
       <c r="G10" s="115"/>
       <c r="H10" s="98"/>
       <c r="I10" s="166"/>
@@ -11547,15 +11637,15 @@
       <c r="A11" s="148"/>
       <c r="B11" s="151"/>
       <c r="C11" s="69" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D11" s="69" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F11" s="177"/>
+      <c r="F11" s="173"/>
       <c r="G11" s="115"/>
       <c r="H11" s="98"/>
       <c r="I11" s="166"/>
@@ -11566,15 +11656,15 @@
       <c r="A12" s="148"/>
       <c r="B12" s="151"/>
       <c r="C12" s="69" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D12" s="69" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F12" s="177"/>
+      <c r="F12" s="173"/>
       <c r="G12" s="115"/>
       <c r="H12" s="98"/>
       <c r="I12" s="166"/>
@@ -11585,15 +11675,15 @@
       <c r="A13" s="148"/>
       <c r="B13" s="151"/>
       <c r="C13" s="69" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D13" s="69" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F13" s="177"/>
+      <c r="F13" s="173"/>
       <c r="G13" s="115"/>
       <c r="H13" s="98"/>
       <c r="I13" s="166"/>
@@ -11604,34 +11694,34 @@
       <c r="A14" s="148"/>
       <c r="B14" s="151"/>
       <c r="C14" s="69" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D14" s="69" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F14" s="177"/>
+      <c r="F14" s="173"/>
       <c r="G14" s="115"/>
       <c r="H14" s="98"/>
       <c r="I14" s="166"/>
       <c r="J14" s="156"/>
       <c r="K14" s="132"/>
     </row>
-    <row r="15" spans="1:11" ht="82" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" ht="93" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="148"/>
       <c r="B15" s="151"/>
       <c r="C15" s="69" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="D15" s="69" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F15" s="177"/>
+      <c r="F15" s="173"/>
       <c r="G15" s="115"/>
       <c r="H15" s="98"/>
       <c r="I15" s="166"/>
@@ -11642,15 +11732,15 @@
       <c r="A16" s="148"/>
       <c r="B16" s="151"/>
       <c r="C16" s="69" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D16" s="69" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F16" s="177"/>
+      <c r="F16" s="173"/>
       <c r="G16" s="115"/>
       <c r="H16" s="98"/>
       <c r="I16" s="166"/>
@@ -11661,15 +11751,15 @@
       <c r="A17" s="148"/>
       <c r="B17" s="151"/>
       <c r="C17" s="69" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D17" s="69" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F17" s="177"/>
+      <c r="F17" s="173"/>
       <c r="G17" s="115"/>
       <c r="H17" s="98"/>
       <c r="I17" s="166"/>
@@ -11680,15 +11770,15 @@
       <c r="A18" s="148"/>
       <c r="B18" s="151"/>
       <c r="C18" s="69" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D18" s="69" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="177"/>
+      <c r="F18" s="173"/>
       <c r="G18" s="115"/>
       <c r="H18" s="98"/>
       <c r="I18" s="166"/>
@@ -11699,15 +11789,15 @@
       <c r="A19" s="148"/>
       <c r="B19" s="151"/>
       <c r="C19" s="69" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D19" s="69" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F19" s="177"/>
+      <c r="F19" s="173"/>
       <c r="G19" s="115"/>
       <c r="H19" s="98"/>
       <c r="I19" s="166"/>
@@ -11718,15 +11808,15 @@
       <c r="A20" s="148"/>
       <c r="B20" s="151"/>
       <c r="C20" s="69" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D20" s="69" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F20" s="177"/>
+      <c r="F20" s="173"/>
       <c r="G20" s="115"/>
       <c r="H20" s="98"/>
       <c r="I20" s="166"/>
@@ -11737,16 +11827,16 @@
       <c r="A21" s="149"/>
       <c r="B21" s="152"/>
       <c r="C21" s="69" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D21" s="69" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F21" s="178"/>
-      <c r="G21" s="186"/>
+      <c r="F21" s="174"/>
+      <c r="G21" s="182"/>
       <c r="H21" s="157"/>
       <c r="I21" s="167"/>
       <c r="J21" s="156"/>
@@ -11767,13 +11857,13 @@
     </row>
     <row r="23" spans="1:11" s="18" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="138" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B23" s="140" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C23" s="70" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D23" s="71" t="s">
         <v>1</v>
@@ -11781,28 +11871,28 @@
       <c r="E23" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F23" s="179" t="s">
-        <v>89</v>
-      </c>
-      <c r="G23" s="181"/>
-      <c r="H23" s="172" t="s">
-        <v>87</v>
-      </c>
-      <c r="I23" s="174" t="s">
-        <v>81</v>
+      <c r="F23" s="175" t="s">
+        <v>84</v>
+      </c>
+      <c r="G23" s="177"/>
+      <c r="H23" s="183" t="s">
+        <v>82</v>
+      </c>
+      <c r="I23" s="185" t="s">
+        <v>76</v>
       </c>
       <c r="J23" s="153" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="K23" s="136" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:11" s="18" customFormat="1" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="139"/>
       <c r="B24" s="141"/>
       <c r="C24" s="71" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D24" s="71" t="s">
         <v>22</v>
@@ -11810,10 +11900,10 @@
       <c r="E24" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F24" s="180"/>
-      <c r="G24" s="182"/>
-      <c r="H24" s="173"/>
-      <c r="I24" s="175"/>
+      <c r="F24" s="176"/>
+      <c r="G24" s="178"/>
+      <c r="H24" s="184"/>
+      <c r="I24" s="186"/>
       <c r="J24" s="154"/>
       <c r="K24" s="137"/>
     </row>
@@ -11821,18 +11911,18 @@
       <c r="A25" s="139"/>
       <c r="B25" s="141"/>
       <c r="C25" s="71" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D25" s="71" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F25" s="180"/>
-      <c r="G25" s="182"/>
-      <c r="H25" s="173"/>
-      <c r="I25" s="175"/>
+      <c r="F25" s="176"/>
+      <c r="G25" s="178"/>
+      <c r="H25" s="184"/>
+      <c r="I25" s="186"/>
       <c r="J25" s="154"/>
       <c r="K25" s="137"/>
     </row>
@@ -11840,18 +11930,18 @@
       <c r="A26" s="139"/>
       <c r="B26" s="141"/>
       <c r="C26" s="71" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D26" s="71" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F26" s="180"/>
-      <c r="G26" s="182"/>
-      <c r="H26" s="173"/>
-      <c r="I26" s="175"/>
+      <c r="F26" s="176"/>
+      <c r="G26" s="178"/>
+      <c r="H26" s="184"/>
+      <c r="I26" s="186"/>
       <c r="J26" s="154"/>
       <c r="K26" s="137"/>
     </row>
@@ -11859,7 +11949,7 @@
       <c r="A27" s="139"/>
       <c r="B27" s="141"/>
       <c r="C27" s="71" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D27" s="71" t="s">
         <v>58</v>
@@ -11867,10 +11957,10 @@
       <c r="E27" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F27" s="180"/>
-      <c r="G27" s="182"/>
-      <c r="H27" s="173"/>
-      <c r="I27" s="175"/>
+      <c r="F27" s="176"/>
+      <c r="G27" s="178"/>
+      <c r="H27" s="184"/>
+      <c r="I27" s="186"/>
       <c r="J27" s="154"/>
       <c r="K27" s="137"/>
     </row>
@@ -11878,37 +11968,37 @@
       <c r="A28" s="139"/>
       <c r="B28" s="141"/>
       <c r="C28" s="71" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D28" s="71" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F28" s="180"/>
-      <c r="G28" s="182"/>
-      <c r="H28" s="173"/>
-      <c r="I28" s="175"/>
+      <c r="F28" s="176"/>
+      <c r="G28" s="178"/>
+      <c r="H28" s="184"/>
+      <c r="I28" s="186"/>
       <c r="J28" s="154"/>
       <c r="K28" s="137"/>
     </row>
-    <row r="29" spans="1:11" s="18" customFormat="1" ht="85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" s="18" customFormat="1" ht="98" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="139"/>
       <c r="B29" s="141"/>
       <c r="C29" s="71" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D29" s="71" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F29" s="180"/>
-      <c r="G29" s="182"/>
-      <c r="H29" s="173"/>
-      <c r="I29" s="175"/>
+      <c r="F29" s="176"/>
+      <c r="G29" s="178"/>
+      <c r="H29" s="184"/>
+      <c r="I29" s="186"/>
       <c r="J29" s="154"/>
       <c r="K29" s="137"/>
     </row>
@@ -11916,56 +12006,56 @@
       <c r="A30" s="139"/>
       <c r="B30" s="141"/>
       <c r="C30" s="71" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D30" s="71" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F30" s="180"/>
-      <c r="G30" s="182"/>
-      <c r="H30" s="173"/>
-      <c r="I30" s="175"/>
+      <c r="F30" s="176"/>
+      <c r="G30" s="178"/>
+      <c r="H30" s="184"/>
+      <c r="I30" s="186"/>
       <c r="J30" s="154"/>
       <c r="K30" s="137"/>
     </row>
-    <row r="31" spans="1:11" s="18" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" s="18" customFormat="1" ht="52" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="139"/>
       <c r="B31" s="141"/>
       <c r="C31" s="71" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D31" s="71" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F31" s="180"/>
-      <c r="G31" s="182"/>
-      <c r="H31" s="173"/>
-      <c r="I31" s="175"/>
+      <c r="F31" s="176"/>
+      <c r="G31" s="178"/>
+      <c r="H31" s="184"/>
+      <c r="I31" s="186"/>
       <c r="J31" s="154"/>
       <c r="K31" s="137"/>
     </row>
-    <row r="32" spans="1:11" s="18" customFormat="1" ht="83" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" s="18" customFormat="1" ht="95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="139"/>
       <c r="B32" s="141"/>
       <c r="C32" s="71" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D32" s="71" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F32" s="180"/>
-      <c r="G32" s="182"/>
-      <c r="H32" s="173"/>
-      <c r="I32" s="175"/>
+      <c r="F32" s="176"/>
+      <c r="G32" s="178"/>
+      <c r="H32" s="184"/>
+      <c r="I32" s="186"/>
       <c r="J32" s="154"/>
       <c r="K32" s="137"/>
     </row>
@@ -11973,18 +12063,18 @@
       <c r="A33" s="139"/>
       <c r="B33" s="141"/>
       <c r="C33" s="71" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D33" s="71" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F33" s="180"/>
-      <c r="G33" s="182"/>
-      <c r="H33" s="173"/>
-      <c r="I33" s="175"/>
+      <c r="F33" s="176"/>
+      <c r="G33" s="178"/>
+      <c r="H33" s="184"/>
+      <c r="I33" s="186"/>
       <c r="J33" s="154"/>
       <c r="K33" s="137"/>
     </row>
@@ -11992,18 +12082,18 @@
       <c r="A34" s="139"/>
       <c r="B34" s="141"/>
       <c r="C34" s="71" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D34" s="71" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F34" s="180"/>
-      <c r="G34" s="182"/>
-      <c r="H34" s="173"/>
-      <c r="I34" s="175"/>
+      <c r="F34" s="176"/>
+      <c r="G34" s="178"/>
+      <c r="H34" s="184"/>
+      <c r="I34" s="186"/>
       <c r="J34" s="154"/>
       <c r="K34" s="137"/>
     </row>
@@ -12011,18 +12101,18 @@
       <c r="A35" s="139"/>
       <c r="B35" s="141"/>
       <c r="C35" s="71" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D35" s="71" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F35" s="180"/>
-      <c r="G35" s="182"/>
-      <c r="H35" s="173"/>
-      <c r="I35" s="175"/>
+      <c r="F35" s="176"/>
+      <c r="G35" s="178"/>
+      <c r="H35" s="184"/>
+      <c r="I35" s="186"/>
       <c r="J35" s="154"/>
       <c r="K35" s="137"/>
     </row>
@@ -12030,18 +12120,18 @@
       <c r="A36" s="139"/>
       <c r="B36" s="141"/>
       <c r="C36" s="71" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D36" s="71" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F36" s="180"/>
-      <c r="G36" s="182"/>
-      <c r="H36" s="173"/>
-      <c r="I36" s="175"/>
+      <c r="F36" s="176"/>
+      <c r="G36" s="178"/>
+      <c r="H36" s="184"/>
+      <c r="I36" s="186"/>
       <c r="J36" s="154"/>
       <c r="K36" s="137"/>
     </row>
@@ -12049,18 +12139,18 @@
       <c r="A37" s="139"/>
       <c r="B37" s="141"/>
       <c r="C37" s="71" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D37" s="71" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F37" s="180"/>
-      <c r="G37" s="182"/>
-      <c r="H37" s="173"/>
-      <c r="I37" s="175"/>
+      <c r="F37" s="176"/>
+      <c r="G37" s="178"/>
+      <c r="H37" s="184"/>
+      <c r="I37" s="186"/>
       <c r="J37" s="154"/>
       <c r="K37" s="137"/>
     </row>
@@ -12068,18 +12158,18 @@
       <c r="A38" s="139"/>
       <c r="B38" s="141"/>
       <c r="C38" s="71" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D38" s="71" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F38" s="180"/>
-      <c r="G38" s="182"/>
-      <c r="H38" s="173"/>
-      <c r="I38" s="175"/>
+      <c r="F38" s="176"/>
+      <c r="G38" s="178"/>
+      <c r="H38" s="184"/>
+      <c r="I38" s="186"/>
       <c r="J38" s="154"/>
       <c r="K38" s="137"/>
     </row>
@@ -12098,13 +12188,13 @@
     </row>
     <row r="40" spans="1:11" s="18" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="138" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B40" s="140" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C40" s="70" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D40" s="71" t="s">
         <v>1</v>
@@ -12112,8 +12202,8 @@
       <c r="E40" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F40" s="183"/>
-      <c r="G40" s="185"/>
+      <c r="F40" s="179"/>
+      <c r="G40" s="181"/>
       <c r="H40" s="97"/>
       <c r="I40" s="158"/>
       <c r="J40" s="155"/>
@@ -12123,7 +12213,7 @@
       <c r="A41" s="139"/>
       <c r="B41" s="141"/>
       <c r="C41" s="71" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D41" s="71" t="s">
         <v>22</v>
@@ -12131,282 +12221,378 @@
       <c r="E41" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F41" s="184"/>
-      <c r="G41" s="185"/>
+      <c r="F41" s="180"/>
+      <c r="G41" s="181"/>
       <c r="H41" s="98"/>
       <c r="I41" s="159"/>
       <c r="J41" s="156"/>
       <c r="K41" s="132"/>
     </row>
-    <row r="42" spans="1:11" s="18" customFormat="1" ht="61" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" s="209" customFormat="1" ht="57" x14ac:dyDescent="0.15">
       <c r="A42" s="139"/>
       <c r="B42" s="141"/>
       <c r="C42" s="71" t="s">
-        <v>239</v>
+        <v>147</v>
       </c>
       <c r="D42" s="71" t="s">
-        <v>74</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F42" s="184"/>
-      <c r="G42" s="185"/>
+        <v>23</v>
+      </c>
+      <c r="E42" s="208" t="s">
+        <v>2</v>
+      </c>
+      <c r="F42" s="180"/>
+      <c r="G42" s="181"/>
       <c r="H42" s="98"/>
       <c r="I42" s="159"/>
       <c r="J42" s="156"/>
       <c r="K42" s="132"/>
     </row>
-    <row r="43" spans="1:11" s="18" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" s="209" customFormat="1" ht="57" x14ac:dyDescent="0.15">
       <c r="A43" s="139"/>
       <c r="B43" s="141"/>
       <c r="C43" s="71" t="s">
-        <v>240</v>
+        <v>148</v>
       </c>
       <c r="D43" s="71" t="s">
-        <v>80</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F43" s="184"/>
-      <c r="G43" s="185"/>
+        <v>24</v>
+      </c>
+      <c r="E43" s="208" t="s">
+        <v>2</v>
+      </c>
+      <c r="F43" s="180"/>
+      <c r="G43" s="181"/>
       <c r="H43" s="98"/>
       <c r="I43" s="159"/>
       <c r="J43" s="156"/>
       <c r="K43" s="132"/>
     </row>
-    <row r="44" spans="1:11" s="18" customFormat="1" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" s="209" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="139"/>
       <c r="B44" s="141"/>
       <c r="C44" s="71" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="D44" s="71" t="s">
-        <v>58</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F44" s="184"/>
-      <c r="G44" s="185"/>
+        <v>25</v>
+      </c>
+      <c r="E44" s="208" t="s">
+        <v>2</v>
+      </c>
+      <c r="F44" s="180"/>
+      <c r="G44" s="181"/>
       <c r="H44" s="98"/>
       <c r="I44" s="159"/>
       <c r="J44" s="156"/>
       <c r="K44" s="132"/>
     </row>
-    <row r="45" spans="1:11" s="18" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" s="209" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="139"/>
       <c r="B45" s="141"/>
       <c r="C45" s="71" t="s">
-        <v>242</v>
+        <v>150</v>
       </c>
       <c r="D45" s="71" t="s">
-        <v>65</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F45" s="184"/>
-      <c r="G45" s="185"/>
+        <v>37</v>
+      </c>
+      <c r="E45" s="208" t="s">
+        <v>2</v>
+      </c>
+      <c r="F45" s="180"/>
+      <c r="G45" s="181"/>
       <c r="H45" s="98"/>
       <c r="I45" s="159"/>
       <c r="J45" s="156"/>
       <c r="K45" s="132"/>
     </row>
-    <row r="46" spans="1:11" s="18" customFormat="1" ht="85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" s="18" customFormat="1" ht="61" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="139"/>
       <c r="B46" s="141"/>
       <c r="C46" s="71" t="s">
-        <v>72</v>
+        <v>220</v>
       </c>
       <c r="D46" s="71" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E46" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F46" s="184"/>
-      <c r="G46" s="185"/>
+      <c r="F46" s="180"/>
+      <c r="G46" s="181"/>
       <c r="H46" s="98"/>
       <c r="I46" s="159"/>
       <c r="J46" s="156"/>
       <c r="K46" s="132"/>
     </row>
-    <row r="47" spans="1:11" s="18" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" s="18" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="139"/>
       <c r="B47" s="141"/>
       <c r="C47" s="71" t="s">
-        <v>68</v>
+        <v>221</v>
       </c>
       <c r="D47" s="71" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="E47" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F47" s="184"/>
-      <c r="G47" s="185"/>
+      <c r="F47" s="180"/>
+      <c r="G47" s="181"/>
       <c r="H47" s="98"/>
       <c r="I47" s="159"/>
       <c r="J47" s="156"/>
       <c r="K47" s="132"/>
     </row>
-    <row r="48" spans="1:11" s="18" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" s="18" customFormat="1" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="139"/>
       <c r="B48" s="141"/>
       <c r="C48" s="71" t="s">
-        <v>63</v>
+        <v>332</v>
       </c>
       <c r="D48" s="71" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F48" s="184"/>
-      <c r="G48" s="185"/>
+      <c r="F48" s="180"/>
+      <c r="G48" s="181"/>
       <c r="H48" s="98"/>
       <c r="I48" s="159"/>
       <c r="J48" s="156"/>
       <c r="K48" s="132"/>
     </row>
-    <row r="49" spans="1:11" s="18" customFormat="1" ht="83" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" s="18" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="139"/>
       <c r="B49" s="141"/>
       <c r="C49" s="71" t="s">
-        <v>72</v>
+        <v>252</v>
       </c>
       <c r="D49" s="71" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="E49" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F49" s="184"/>
-      <c r="G49" s="185"/>
+      <c r="F49" s="180"/>
+      <c r="G49" s="181"/>
       <c r="H49" s="98"/>
       <c r="I49" s="159"/>
       <c r="J49" s="156"/>
       <c r="K49" s="132"/>
     </row>
-    <row r="50" spans="1:11" s="18" customFormat="1" ht="71" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" s="18" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="139"/>
       <c r="B50" s="141"/>
       <c r="C50" s="71" t="s">
-        <v>76</v>
+        <v>333</v>
       </c>
       <c r="D50" s="71" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E50" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F50" s="184"/>
-      <c r="G50" s="185"/>
+      <c r="F50" s="180"/>
+      <c r="G50" s="181"/>
       <c r="H50" s="98"/>
       <c r="I50" s="159"/>
       <c r="J50" s="156"/>
       <c r="K50" s="132"/>
     </row>
-    <row r="51" spans="1:11" s="18" customFormat="1" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" s="18" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="139"/>
       <c r="B51" s="141"/>
       <c r="C51" s="71" t="s">
-        <v>77</v>
+        <v>334</v>
       </c>
       <c r="D51" s="71" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F51" s="184"/>
-      <c r="G51" s="185"/>
+      <c r="F51" s="180"/>
+      <c r="G51" s="181"/>
       <c r="H51" s="98"/>
       <c r="I51" s="159"/>
       <c r="J51" s="156"/>
       <c r="K51" s="132"/>
     </row>
-    <row r="52" spans="1:11" s="18" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" s="18" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="139"/>
       <c r="B52" s="141"/>
       <c r="C52" s="71" t="s">
-        <v>319</v>
+        <v>335</v>
       </c>
       <c r="D52" s="71" t="s">
-        <v>316</v>
+        <v>64</v>
       </c>
       <c r="E52" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F52" s="184"/>
-      <c r="G52" s="185"/>
+      <c r="F52" s="180"/>
+      <c r="G52" s="181"/>
       <c r="H52" s="98"/>
       <c r="I52" s="159"/>
       <c r="J52" s="156"/>
       <c r="K52" s="132"/>
     </row>
-    <row r="53" spans="1:11" s="18" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" s="18" customFormat="1" ht="104" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="139"/>
       <c r="B53" s="141"/>
       <c r="C53" s="71" t="s">
-        <v>317</v>
+        <v>336</v>
       </c>
       <c r="D53" s="71" t="s">
-        <v>318</v>
+        <v>70</v>
       </c>
       <c r="E53" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F53" s="184"/>
-      <c r="G53" s="185"/>
+      <c r="F53" s="180"/>
+      <c r="G53" s="181"/>
       <c r="H53" s="98"/>
       <c r="I53" s="159"/>
       <c r="J53" s="156"/>
       <c r="K53" s="132"/>
     </row>
-    <row r="54" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="12"/>
-      <c r="B54" s="78"/>
-      <c r="C54" s="76"/>
-      <c r="D54" s="76"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="86"/>
-      <c r="G54" s="87"/>
-      <c r="H54" s="88"/>
-      <c r="I54" s="75"/>
-      <c r="J54" s="74"/>
-      <c r="K54" s="74"/>
+    <row r="54" spans="1:11" s="18" customFormat="1" ht="71" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="139"/>
+      <c r="B54" s="141"/>
+      <c r="C54" s="71" t="s">
+        <v>228</v>
+      </c>
+      <c r="D54" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F54" s="180"/>
+      <c r="G54" s="181"/>
+      <c r="H54" s="98"/>
+      <c r="I54" s="159"/>
+      <c r="J54" s="156"/>
+      <c r="K54" s="132"/>
+    </row>
+    <row r="55" spans="1:11" s="18" customFormat="1" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="139"/>
+      <c r="B55" s="141"/>
+      <c r="C55" s="71" t="s">
+        <v>229</v>
+      </c>
+      <c r="D55" s="71" t="s">
+        <v>73</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F55" s="180"/>
+      <c r="G55" s="181"/>
+      <c r="H55" s="98"/>
+      <c r="I55" s="159"/>
+      <c r="J55" s="156"/>
+      <c r="K55" s="132"/>
+    </row>
+    <row r="56" spans="1:11" s="18" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="139"/>
+      <c r="B56" s="141"/>
+      <c r="C56" s="71" t="s">
+        <v>337</v>
+      </c>
+      <c r="D56" s="71" t="s">
+        <v>311</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F56" s="180"/>
+      <c r="G56" s="181"/>
+      <c r="H56" s="98"/>
+      <c r="I56" s="159"/>
+      <c r="J56" s="156"/>
+      <c r="K56" s="132"/>
+    </row>
+    <row r="57" spans="1:11" s="18" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="211"/>
+      <c r="B57" s="210"/>
+      <c r="C57" s="71" t="s">
+        <v>338</v>
+      </c>
+      <c r="D57" s="71" t="s">
+        <v>312</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F57" s="180"/>
+      <c r="G57" s="181"/>
+      <c r="H57" s="98"/>
+      <c r="I57" s="159"/>
+      <c r="J57" s="156"/>
+      <c r="K57" s="132"/>
+    </row>
+    <row r="58" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="12"/>
+      <c r="B58" s="78"/>
+      <c r="C58" s="76"/>
+      <c r="D58" s="76"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="86"/>
+      <c r="G58" s="87"/>
+      <c r="H58" s="88"/>
+      <c r="I58" s="75"/>
+      <c r="J58" s="74"/>
+      <c r="K58" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="K40:K53"/>
+    <mergeCell ref="A2:A21"/>
+    <mergeCell ref="B2:B21"/>
+    <mergeCell ref="A23:A38"/>
+    <mergeCell ref="B23:B38"/>
+    <mergeCell ref="H2:H21"/>
+    <mergeCell ref="A40:A57"/>
+    <mergeCell ref="B40:B57"/>
+    <mergeCell ref="H23:H38"/>
+    <mergeCell ref="I23:I38"/>
+    <mergeCell ref="J23:J38"/>
+    <mergeCell ref="H40:H57"/>
+    <mergeCell ref="I40:I57"/>
+    <mergeCell ref="J40:J57"/>
+    <mergeCell ref="K40:K57"/>
     <mergeCell ref="F2:F21"/>
     <mergeCell ref="F23:F38"/>
     <mergeCell ref="G23:G38"/>
-    <mergeCell ref="F40:F53"/>
-    <mergeCell ref="G40:G53"/>
+    <mergeCell ref="F40:F57"/>
+    <mergeCell ref="G40:G57"/>
     <mergeCell ref="G2:G21"/>
     <mergeCell ref="K23:K38"/>
     <mergeCell ref="I2:I21"/>
     <mergeCell ref="J2:J21"/>
     <mergeCell ref="K2:K21"/>
-    <mergeCell ref="A40:A53"/>
-    <mergeCell ref="B40:B53"/>
-    <mergeCell ref="H23:H38"/>
-    <mergeCell ref="I23:I38"/>
-    <mergeCell ref="J23:J38"/>
-    <mergeCell ref="H40:H53"/>
-    <mergeCell ref="I40:I53"/>
-    <mergeCell ref="J40:J53"/>
-    <mergeCell ref="A2:A21"/>
-    <mergeCell ref="B2:B21"/>
-    <mergeCell ref="A23:A38"/>
-    <mergeCell ref="B23:B38"/>
-    <mergeCell ref="H2:H21"/>
   </mergeCells>
   <conditionalFormatting sqref="E2:E21">
+    <cfRule type="cellIs" dxfId="180" priority="58" operator="equal">
+      <formula>"Ready To Test"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="179" priority="59" operator="equal">
+      <formula>"Ready To Test"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="178" priority="60" operator="equal">
+      <formula>"Block/Skip"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="177" priority="61" operator="equal">
+      <formula>"Ready To Test"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="176" priority="62" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="175" priority="63" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23:G23 E24:E38">
     <cfRule type="cellIs" dxfId="174" priority="52" operator="equal">
       <formula>"Ready To Test"</formula>
     </cfRule>
@@ -12426,83 +12612,85 @@
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E23:G23 E24:E38">
-    <cfRule type="cellIs" dxfId="168" priority="46" operator="equal">
-      <formula>"Ready To Test"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="167" priority="47" operator="equal">
-      <formula>"Ready To Test"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="48" operator="equal">
-      <formula>"Block/Skip"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="49" operator="equal">
-      <formula>"Ready To Test"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="50" operator="equal">
-      <formula>"Pass"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="163" priority="51" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="J2">
-    <cfRule type="cellIs" dxfId="162" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="48" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="49" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="50" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="159" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="51" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2">
-    <cfRule type="cellIs" dxfId="158" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="41" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="42" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="43" operator="equal">
       <formula>"High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K23">
-    <cfRule type="cellIs" dxfId="155" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="38" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="39" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="40" operator="equal">
       <formula>"High"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E40:G40 E41:E53">
-    <cfRule type="cellIs" dxfId="152" priority="26" operator="equal">
+  <conditionalFormatting sqref="E40:G40 E41 E46:E57">
+    <cfRule type="cellIs" dxfId="158" priority="32" operator="equal">
       <formula>"Ready To Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="33" operator="equal">
       <formula>"Ready To Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="34" operator="equal">
       <formula>"Block/Skip"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="35" operator="equal">
       <formula>"Ready To Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="36" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="37" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J40">
+    <cfRule type="cellIs" dxfId="152" priority="20" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="151" priority="21" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="150" priority="22" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="149" priority="23" operator="equal">
+      <formula>"Critical"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J40:J41 J46:J57">
+    <cfRule type="cellIs" dxfId="148" priority="18" operator="equal">
+      <formula>"Critical"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="147" priority="19" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J23">
     <cfRule type="cellIs" dxfId="146" priority="14" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
@@ -12516,7 +12704,7 @@
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J40:J53">
+  <conditionalFormatting sqref="J23:J38">
     <cfRule type="cellIs" dxfId="142" priority="12" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
@@ -12524,51 +12712,49 @@
       <formula>"High"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J23">
-    <cfRule type="cellIs" dxfId="140" priority="8" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="9" operator="equal">
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="10" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="11" operator="equal">
-      <formula>"Critical"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J23:J38">
-    <cfRule type="cellIs" dxfId="136" priority="6" operator="equal">
-      <formula>"Critical"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="7" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K23:K38">
-    <cfRule type="cellIs" dxfId="134" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="11" operator="equal">
       <formula>"High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K40">
-    <cfRule type="cellIs" dxfId="133" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="8" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="9" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="131" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="10" operator="equal">
       <formula>"High"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K40:K53">
-    <cfRule type="cellIs" dxfId="130" priority="1" operator="equal">
+  <conditionalFormatting sqref="K40:K41 K46:K57">
+    <cfRule type="cellIs" dxfId="136" priority="7" operator="equal">
       <formula>"High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42:E45">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+      <formula>"Ready To Test"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+      <formula>"Ready To Test"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"Block/Skip"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>"Ready To Test"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
+      <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E40:E53 E2:E21 E23:E38" xr:uid="{061321B7-954D-E542-A61B-6243FF8FA217}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E23:E38 E2:E21 E40:E57" xr:uid="{061321B7-954D-E542-A61B-6243FF8FA217}">
       <formula1>"Ready To Test,Pass,Fail,Block/Skip"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2 K23 K40" xr:uid="{06748EE9-8A03-B349-AC0D-30989AFB27BB}">
@@ -12610,28 +12796,28 @@
   <sheetData>
     <row r="1" spans="1:11" s="89" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="36" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C1" s="42" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D1" s="32" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F1" s="41" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="G1" s="52" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="H1" s="51" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="I1" s="35" t="s">
         <v>30</v>
@@ -12645,13 +12831,13 @@
     </row>
     <row r="2" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="189" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B2" s="150" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="C2" s="68" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D2" s="69" t="s">
         <v>1</v>
@@ -12670,7 +12856,7 @@
       <c r="A3" s="190"/>
       <c r="B3" s="151"/>
       <c r="C3" s="69" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D3" s="69" t="s">
         <v>22</v>
@@ -12679,7 +12865,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="195"/>
-      <c r="G3" s="185"/>
+      <c r="G3" s="181"/>
       <c r="H3" s="98"/>
       <c r="I3" s="166"/>
       <c r="J3" s="156"/>
@@ -12689,7 +12875,7 @@
       <c r="A4" s="190"/>
       <c r="B4" s="151"/>
       <c r="C4" s="69" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D4" s="69" t="s">
         <v>23</v>
@@ -12698,7 +12884,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="195"/>
-      <c r="G4" s="185"/>
+      <c r="G4" s="181"/>
       <c r="H4" s="98"/>
       <c r="I4" s="166"/>
       <c r="J4" s="156"/>
@@ -12708,16 +12894,16 @@
       <c r="A5" s="190"/>
       <c r="B5" s="151"/>
       <c r="C5" s="69" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D5" s="69" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F5" s="195"/>
-      <c r="G5" s="185"/>
+      <c r="G5" s="181"/>
       <c r="H5" s="98"/>
       <c r="I5" s="166"/>
       <c r="J5" s="156"/>
@@ -12727,7 +12913,7 @@
       <c r="A6" s="190"/>
       <c r="B6" s="151"/>
       <c r="C6" s="69" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D6" s="69" t="s">
         <v>37</v>
@@ -12736,7 +12922,7 @@
         <v>2</v>
       </c>
       <c r="F6" s="195"/>
-      <c r="G6" s="185"/>
+      <c r="G6" s="181"/>
       <c r="H6" s="98"/>
       <c r="I6" s="166"/>
       <c r="J6" s="156"/>
@@ -12746,7 +12932,7 @@
       <c r="A7" s="190"/>
       <c r="B7" s="151"/>
       <c r="C7" s="69" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D7" s="69" t="s">
         <v>58</v>
@@ -12755,7 +12941,7 @@
         <v>2</v>
       </c>
       <c r="F7" s="195"/>
-      <c r="G7" s="185"/>
+      <c r="G7" s="181"/>
       <c r="H7" s="98"/>
       <c r="I7" s="166"/>
       <c r="J7" s="156"/>
@@ -12765,16 +12951,16 @@
       <c r="A8" s="190"/>
       <c r="B8" s="151"/>
       <c r="C8" s="69" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D8" s="69" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F8" s="195"/>
-      <c r="G8" s="185"/>
+      <c r="G8" s="181"/>
       <c r="H8" s="98"/>
       <c r="I8" s="166"/>
       <c r="J8" s="156"/>
@@ -12784,16 +12970,16 @@
       <c r="A9" s="190"/>
       <c r="B9" s="151"/>
       <c r="C9" s="69" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D9" s="69" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F9" s="195"/>
-      <c r="G9" s="185"/>
+      <c r="G9" s="181"/>
       <c r="H9" s="98"/>
       <c r="I9" s="166"/>
       <c r="J9" s="156"/>
@@ -12803,16 +12989,16 @@
       <c r="A10" s="190"/>
       <c r="B10" s="151"/>
       <c r="C10" s="69" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D10" s="69" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F10" s="195"/>
-      <c r="G10" s="185"/>
+      <c r="G10" s="181"/>
       <c r="H10" s="98"/>
       <c r="I10" s="166"/>
       <c r="J10" s="156"/>
@@ -12822,16 +13008,16 @@
       <c r="A11" s="190"/>
       <c r="B11" s="151"/>
       <c r="C11" s="69" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D11" s="69" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F11" s="195"/>
-      <c r="G11" s="185"/>
+      <c r="G11" s="181"/>
       <c r="H11" s="98"/>
       <c r="I11" s="166"/>
       <c r="J11" s="156"/>
@@ -12841,16 +13027,16 @@
       <c r="A12" s="190"/>
       <c r="B12" s="151"/>
       <c r="C12" s="69" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D12" s="69" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F12" s="195"/>
-      <c r="G12" s="185"/>
+      <c r="G12" s="181"/>
       <c r="H12" s="98"/>
       <c r="I12" s="166"/>
       <c r="J12" s="156"/>
@@ -12860,16 +13046,16 @@
       <c r="A13" s="190"/>
       <c r="B13" s="151"/>
       <c r="C13" s="69" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D13" s="69" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F13" s="195"/>
-      <c r="G13" s="185"/>
+      <c r="G13" s="181"/>
       <c r="H13" s="98"/>
       <c r="I13" s="166"/>
       <c r="J13" s="156"/>
@@ -12879,16 +13065,16 @@
       <c r="A14" s="190"/>
       <c r="B14" s="151"/>
       <c r="C14" s="69" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="D14" s="69" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F14" s="195"/>
-      <c r="G14" s="185"/>
+      <c r="G14" s="181"/>
       <c r="H14" s="98"/>
       <c r="I14" s="166"/>
       <c r="J14" s="156"/>
@@ -12898,16 +13084,16 @@
       <c r="A15" s="190"/>
       <c r="B15" s="151"/>
       <c r="C15" s="69" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D15" s="69" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F15" s="195"/>
-      <c r="G15" s="185"/>
+      <c r="G15" s="181"/>
       <c r="H15" s="98"/>
       <c r="I15" s="166"/>
       <c r="J15" s="156"/>
@@ -12917,16 +13103,16 @@
       <c r="A16" s="190"/>
       <c r="B16" s="151"/>
       <c r="C16" s="69" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D16" s="69" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F16" s="195"/>
-      <c r="G16" s="185"/>
+      <c r="G16" s="181"/>
       <c r="H16" s="98"/>
       <c r="I16" s="166"/>
       <c r="J16" s="156"/>
@@ -12936,16 +13122,16 @@
       <c r="A17" s="190"/>
       <c r="B17" s="151"/>
       <c r="C17" s="69" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D17" s="69" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F17" s="195"/>
-      <c r="G17" s="185"/>
+      <c r="G17" s="181"/>
       <c r="H17" s="98"/>
       <c r="I17" s="166"/>
       <c r="J17" s="156"/>
@@ -12955,10 +13141,10 @@
       <c r="A18" s="191"/>
       <c r="B18" s="152"/>
       <c r="C18" s="69" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D18" s="69" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>2</v>
@@ -12985,13 +13171,13 @@
     </row>
     <row r="20" spans="1:11" s="18" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="187" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B20" s="140" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="C20" s="70" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D20" s="71" t="s">
         <v>1</v>
@@ -13000,7 +13186,7 @@
         <v>2</v>
       </c>
       <c r="F20" s="197"/>
-      <c r="G20" s="181"/>
+      <c r="G20" s="177"/>
       <c r="H20" s="100"/>
       <c r="I20" s="170"/>
       <c r="J20" s="153"/>
@@ -13010,7 +13196,7 @@
       <c r="A21" s="188"/>
       <c r="B21" s="141"/>
       <c r="C21" s="71" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D21" s="71" t="s">
         <v>22</v>
@@ -13019,7 +13205,7 @@
         <v>2</v>
       </c>
       <c r="F21" s="198"/>
-      <c r="G21" s="182"/>
+      <c r="G21" s="178"/>
       <c r="H21" s="101"/>
       <c r="I21" s="171"/>
       <c r="J21" s="154"/>
@@ -13029,7 +13215,7 @@
       <c r="A22" s="188"/>
       <c r="B22" s="141"/>
       <c r="C22" s="71" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D22" s="71" t="s">
         <v>58</v>
@@ -13038,7 +13224,7 @@
         <v>2</v>
       </c>
       <c r="F22" s="198"/>
-      <c r="G22" s="182"/>
+      <c r="G22" s="178"/>
       <c r="H22" s="101"/>
       <c r="I22" s="171"/>
       <c r="J22" s="154"/>
@@ -13048,16 +13234,16 @@
       <c r="A23" s="188"/>
       <c r="B23" s="141"/>
       <c r="C23" s="71" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D23" s="71" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F23" s="198"/>
-      <c r="G23" s="182"/>
+      <c r="G23" s="178"/>
       <c r="H23" s="101"/>
       <c r="I23" s="171"/>
       <c r="J23" s="154"/>
@@ -13067,16 +13253,16 @@
       <c r="A24" s="188"/>
       <c r="B24" s="141"/>
       <c r="C24" s="71" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D24" s="71" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F24" s="198"/>
-      <c r="G24" s="182"/>
+      <c r="G24" s="178"/>
       <c r="H24" s="101"/>
       <c r="I24" s="171"/>
       <c r="J24" s="154"/>
@@ -13086,16 +13272,16 @@
       <c r="A25" s="188"/>
       <c r="B25" s="141"/>
       <c r="C25" s="71" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D25" s="71" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F25" s="198"/>
-      <c r="G25" s="182"/>
+      <c r="G25" s="178"/>
       <c r="H25" s="101"/>
       <c r="I25" s="171"/>
       <c r="J25" s="154"/>
@@ -13105,16 +13291,16 @@
       <c r="A26" s="188"/>
       <c r="B26" s="141"/>
       <c r="C26" s="71" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D26" s="71" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F26" s="198"/>
-      <c r="G26" s="182"/>
+      <c r="G26" s="178"/>
       <c r="H26" s="101"/>
       <c r="I26" s="171"/>
       <c r="J26" s="154"/>
@@ -13124,16 +13310,16 @@
       <c r="A27" s="188"/>
       <c r="B27" s="141"/>
       <c r="C27" s="71" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D27" s="71" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F27" s="198"/>
-      <c r="G27" s="182"/>
+      <c r="G27" s="178"/>
       <c r="H27" s="101"/>
       <c r="I27" s="171"/>
       <c r="J27" s="154"/>
@@ -13143,16 +13329,16 @@
       <c r="A28" s="188"/>
       <c r="B28" s="141"/>
       <c r="C28" s="71" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D28" s="71" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F28" s="198"/>
-      <c r="G28" s="182"/>
+      <c r="G28" s="178"/>
       <c r="H28" s="101"/>
       <c r="I28" s="171"/>
       <c r="J28" s="154"/>
@@ -13162,16 +13348,16 @@
       <c r="A29" s="188"/>
       <c r="B29" s="141"/>
       <c r="C29" s="71" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="D29" s="71" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F29" s="198"/>
-      <c r="G29" s="182"/>
+      <c r="G29" s="178"/>
       <c r="H29" s="101"/>
       <c r="I29" s="171"/>
       <c r="J29" s="154"/>
@@ -13181,16 +13367,16 @@
       <c r="A30" s="188"/>
       <c r="B30" s="141"/>
       <c r="C30" s="71" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D30" s="71" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F30" s="198"/>
-      <c r="G30" s="182"/>
+      <c r="G30" s="178"/>
       <c r="H30" s="101"/>
       <c r="I30" s="171"/>
       <c r="J30" s="154"/>
@@ -13200,16 +13386,16 @@
       <c r="A31" s="188"/>
       <c r="B31" s="141"/>
       <c r="C31" s="71" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D31" s="71" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F31" s="198"/>
-      <c r="G31" s="182"/>
+      <c r="G31" s="178"/>
       <c r="H31" s="101"/>
       <c r="I31" s="171"/>
       <c r="J31" s="154"/>
@@ -13219,16 +13405,16 @@
       <c r="A32" s="188"/>
       <c r="B32" s="141"/>
       <c r="C32" s="71" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D32" s="71" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F32" s="198"/>
-      <c r="G32" s="182"/>
+      <c r="G32" s="178"/>
       <c r="H32" s="101"/>
       <c r="I32" s="171"/>
       <c r="J32" s="154"/>
@@ -13238,16 +13424,16 @@
       <c r="A33" s="188"/>
       <c r="B33" s="141"/>
       <c r="C33" s="71" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D33" s="71" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F33" s="198"/>
-      <c r="G33" s="182"/>
+      <c r="G33" s="178"/>
       <c r="H33" s="101"/>
       <c r="I33" s="171"/>
       <c r="J33" s="154"/>
@@ -13278,6 +13464,13 @@
     <row r="44" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="K2:K18"/>
+    <mergeCell ref="H20:H33"/>
+    <mergeCell ref="I20:I33"/>
+    <mergeCell ref="J20:J33"/>
+    <mergeCell ref="K20:K33"/>
+    <mergeCell ref="H2:H18"/>
+    <mergeCell ref="I2:I18"/>
     <mergeCell ref="A20:A33"/>
     <mergeCell ref="B20:B33"/>
     <mergeCell ref="A2:A18"/>
@@ -13287,101 +13480,94 @@
     <mergeCell ref="F2:F18"/>
     <mergeCell ref="F20:F33"/>
     <mergeCell ref="G20:G33"/>
-    <mergeCell ref="K2:K18"/>
-    <mergeCell ref="H20:H33"/>
-    <mergeCell ref="I20:I33"/>
-    <mergeCell ref="J20:J33"/>
-    <mergeCell ref="K20:K33"/>
-    <mergeCell ref="H2:H18"/>
-    <mergeCell ref="I2:I18"/>
   </mergeCells>
   <conditionalFormatting sqref="E2:G2 E3:E18 E21:E33">
-    <cfRule type="cellIs" dxfId="129" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="21" operator="equal">
       <formula>"Ready To Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="22" operator="equal">
       <formula>"Ready To Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="23" operator="equal">
       <formula>"Block/Skip"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="24" operator="equal">
       <formula>"Ready To Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="25" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="26" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20:G20">
-    <cfRule type="cellIs" dxfId="123" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="15" operator="equal">
       <formula>"Ready To Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="16" operator="equal">
       <formula>"Ready To Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="17" operator="equal">
       <formula>"Block/Skip"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="18" operator="equal">
       <formula>"Ready To Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="119" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="19" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="20" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2">
-    <cfRule type="cellIs" dxfId="117" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="11" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="12" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="13" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="14" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J20">
-    <cfRule type="cellIs" dxfId="113" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="7" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="8" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="9" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="10" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2">
-    <cfRule type="cellIs" dxfId="109" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="4" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="5" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="107" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="6" operator="equal">
       <formula>"High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K20">
-    <cfRule type="cellIs" dxfId="106" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="1" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="2" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="3" operator="equal">
       <formula>"High"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13429,28 +13615,28 @@
   <sheetData>
     <row r="1" spans="1:11" s="89" customFormat="1" ht="49" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="36" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C1" s="64" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D1" s="32" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F1" s="41" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="G1" s="52" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="H1" s="51" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="I1" s="35" t="s">
         <v>30</v>
@@ -13464,13 +13650,13 @@
     </row>
     <row r="2" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="189" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B2" s="150" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="C2" s="68" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D2" s="69" t="s">
         <v>1</v>
@@ -13478,8 +13664,8 @@
       <c r="E2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="176" t="s">
-        <v>165</v>
+      <c r="F2" s="172" t="s">
+        <v>160</v>
       </c>
       <c r="G2" s="94"/>
       <c r="H2" s="97"/>
@@ -13491,7 +13677,7 @@
       <c r="A3" s="190"/>
       <c r="B3" s="151"/>
       <c r="C3" s="69" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D3" s="69" t="s">
         <v>22</v>
@@ -13499,7 +13685,7 @@
       <c r="E3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="177"/>
+      <c r="F3" s="173"/>
       <c r="G3" s="95"/>
       <c r="H3" s="98"/>
       <c r="I3" s="166"/>
@@ -13510,15 +13696,15 @@
       <c r="A4" s="190"/>
       <c r="B4" s="151"/>
       <c r="C4" s="69" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="D4" s="69" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="177"/>
+      <c r="F4" s="173"/>
       <c r="G4" s="95"/>
       <c r="H4" s="98"/>
       <c r="I4" s="166"/>
@@ -13529,15 +13715,15 @@
       <c r="A5" s="190"/>
       <c r="B5" s="151"/>
       <c r="C5" s="69" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="D5" s="69" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="177"/>
+      <c r="F5" s="173"/>
       <c r="G5" s="95"/>
       <c r="H5" s="98"/>
       <c r="I5" s="166"/>
@@ -13548,15 +13734,15 @@
       <c r="A6" s="190"/>
       <c r="B6" s="151"/>
       <c r="C6" s="69" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="D6" s="69" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="177"/>
+      <c r="F6" s="173"/>
       <c r="G6" s="95"/>
       <c r="H6" s="98"/>
       <c r="I6" s="166"/>
@@ -13567,15 +13753,15 @@
       <c r="A7" s="190"/>
       <c r="B7" s="151"/>
       <c r="C7" s="69" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="D7" s="69" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="177"/>
+      <c r="F7" s="173"/>
       <c r="G7" s="95"/>
       <c r="H7" s="98"/>
       <c r="I7" s="166"/>
@@ -13586,15 +13772,15 @@
       <c r="A8" s="190"/>
       <c r="B8" s="151"/>
       <c r="C8" s="69" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="D8" s="69" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="177"/>
+      <c r="F8" s="173"/>
       <c r="G8" s="95"/>
       <c r="H8" s="98"/>
       <c r="I8" s="166"/>
@@ -13635,47 +13821,47 @@
     <mergeCell ref="I2:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="E2:E8">
-    <cfRule type="cellIs" dxfId="103" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="21" operator="equal">
       <formula>"Ready To Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="22" operator="equal">
       <formula>"Ready To Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="23" operator="equal">
       <formula>"Block/Skip"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="24" operator="equal">
       <formula>"Ready To Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="25" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="26" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2">
-    <cfRule type="cellIs" dxfId="97" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="11" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="12" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="95" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="13" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="14" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2">
-    <cfRule type="cellIs" dxfId="93" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="4" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="5" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="6" operator="equal">
       <formula>"High"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13723,13 +13909,13 @@
   <sheetData>
     <row r="1" spans="1:11" ht="64" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="36" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C1" s="64" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D1" s="77" t="s">
         <v>0</v>
@@ -13738,13 +13924,13 @@
         <v>7</v>
       </c>
       <c r="F1" s="41" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="G1" s="52" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="H1" s="51" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="I1" s="35" t="s">
         <v>30</v>
@@ -13758,13 +13944,13 @@
     </row>
     <row r="2" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="189" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B2" s="150" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C2" s="68" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D2" s="69" t="s">
         <v>1</v>
@@ -13773,7 +13959,7 @@
         <v>2</v>
       </c>
       <c r="F2" s="199" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="G2" s="94"/>
       <c r="H2" s="94"/>
@@ -13785,7 +13971,7 @@
       <c r="A3" s="190"/>
       <c r="B3" s="151"/>
       <c r="C3" s="69" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D3" s="69" t="s">
         <v>22</v>
@@ -13793,7 +13979,7 @@
       <c r="E3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="177"/>
+      <c r="F3" s="173"/>
       <c r="G3" s="95"/>
       <c r="H3" s="95"/>
       <c r="I3" s="166"/>
@@ -13804,7 +13990,7 @@
       <c r="A4" s="190"/>
       <c r="B4" s="151"/>
       <c r="C4" s="96" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="D4" s="69" t="s">
         <v>23</v>
@@ -13812,7 +13998,7 @@
       <c r="E4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="177"/>
+      <c r="F4" s="173"/>
       <c r="G4" s="95"/>
       <c r="H4" s="95"/>
       <c r="I4" s="166"/>
@@ -13823,15 +14009,15 @@
       <c r="A5" s="190"/>
       <c r="B5" s="151"/>
       <c r="C5" s="69" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D5" s="69" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="177"/>
+      <c r="F5" s="173"/>
       <c r="G5" s="95"/>
       <c r="H5" s="95"/>
       <c r="I5" s="166"/>
@@ -13842,15 +14028,15 @@
       <c r="A6" s="190"/>
       <c r="B6" s="151"/>
       <c r="C6" s="69" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D6" s="69" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="177"/>
+      <c r="F6" s="173"/>
       <c r="G6" s="95"/>
       <c r="H6" s="95"/>
       <c r="I6" s="166"/>
@@ -13861,15 +14047,15 @@
       <c r="A7" s="190"/>
       <c r="B7" s="151"/>
       <c r="C7" s="69" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D7" s="69" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="177"/>
+      <c r="F7" s="173"/>
       <c r="G7" s="95"/>
       <c r="H7" s="95"/>
       <c r="I7" s="166"/>
@@ -13880,15 +14066,15 @@
       <c r="A8" s="190"/>
       <c r="B8" s="151"/>
       <c r="C8" s="69" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D8" s="69" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="177"/>
+      <c r="F8" s="173"/>
       <c r="G8" s="95"/>
       <c r="H8" s="95"/>
       <c r="I8" s="166"/>
@@ -13899,15 +14085,15 @@
       <c r="A9" s="190"/>
       <c r="B9" s="151"/>
       <c r="C9" s="69" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D9" s="69" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="177"/>
+      <c r="F9" s="173"/>
       <c r="G9" s="95"/>
       <c r="H9" s="95"/>
       <c r="I9" s="166"/>
@@ -13918,15 +14104,15 @@
       <c r="A10" s="190"/>
       <c r="B10" s="151"/>
       <c r="C10" s="69" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="D10" s="69" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="177"/>
+      <c r="F10" s="173"/>
       <c r="G10" s="95"/>
       <c r="H10" s="95"/>
       <c r="I10" s="166"/>
@@ -13937,15 +14123,15 @@
       <c r="A11" s="190"/>
       <c r="B11" s="151"/>
       <c r="C11" s="69" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="D11" s="69" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F11" s="177"/>
+      <c r="F11" s="173"/>
       <c r="G11" s="95"/>
       <c r="H11" s="95"/>
       <c r="I11" s="166"/>
@@ -13956,15 +14142,15 @@
       <c r="A12" s="190"/>
       <c r="B12" s="151"/>
       <c r="C12" s="69" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="D12" s="69" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F12" s="177"/>
+      <c r="F12" s="173"/>
       <c r="G12" s="95"/>
       <c r="H12" s="95"/>
       <c r="I12" s="166"/>
@@ -13975,15 +14161,15 @@
       <c r="A13" s="190"/>
       <c r="B13" s="151"/>
       <c r="C13" s="69" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="D13" s="69" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F13" s="177"/>
+      <c r="F13" s="173"/>
       <c r="G13" s="95"/>
       <c r="H13" s="95"/>
       <c r="I13" s="166"/>
@@ -13994,15 +14180,15 @@
       <c r="A14" s="190"/>
       <c r="B14" s="151"/>
       <c r="C14" s="69" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="D14" s="69" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F14" s="177"/>
+      <c r="F14" s="173"/>
       <c r="G14" s="95"/>
       <c r="H14" s="95"/>
       <c r="I14" s="166"/>
@@ -14042,47 +14228,47 @@
     <mergeCell ref="F2:F14"/>
   </mergeCells>
   <conditionalFormatting sqref="E2:E14">
-    <cfRule type="cellIs" dxfId="90" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="8" operator="equal">
       <formula>"Ready To Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="9" operator="equal">
       <formula>"Ready To Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="10" operator="equal">
       <formula>"Block/Skip"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="11" operator="equal">
       <formula>"Ready To Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="12" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="13" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2">
-    <cfRule type="cellIs" dxfId="84" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="4" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="5" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="6" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="7" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2">
-    <cfRule type="cellIs" dxfId="80" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="1" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="2" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="3" operator="equal">
       <formula>"High"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/data/Final-Manual-Oussama.xlsx
+++ b/data/Final-Manual-Oussama.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/newuser/Desktop/FinalProjectTeam1/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9957528D-0BEE-7742-A78E-C146D1E7BC98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C57F357-F44B-B043-A74A-72D8D0BFB1DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16680" firstSheet="16" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3640,7 +3640,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -3834,6 +3834,10 @@
     <font>
       <sz val="16"/>
       <color theme="1"/>
+      <name val="Arial (Body)"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <name val="Arial (Body)"/>
     </font>
   </fonts>
@@ -4330,7 +4334,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="212">
+  <cellXfs count="213">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4828,6 +4832,42 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4846,42 +4886,6 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4945,10 +4949,13 @@
     <xf numFmtId="0" fontId="22" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
@@ -11113,7 +11120,7 @@
       <c r="E2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="210" t="s">
+      <c r="F2" s="211" t="s">
         <v>391</v>
       </c>
       <c r="G2" s="194" t="s">
@@ -11137,7 +11144,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="197"/>
-      <c r="G3" s="187"/>
+      <c r="G3" s="181"/>
       <c r="H3" s="92"/>
       <c r="I3" s="160"/>
       <c r="J3" s="150"/>
@@ -11156,7 +11163,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="197"/>
-      <c r="G4" s="187"/>
+      <c r="G4" s="181"/>
       <c r="H4" s="92"/>
       <c r="I4" s="160"/>
       <c r="J4" s="150"/>
@@ -11175,7 +11182,7 @@
         <v>2</v>
       </c>
       <c r="F5" s="197"/>
-      <c r="G5" s="187"/>
+      <c r="G5" s="181"/>
       <c r="H5" s="92"/>
       <c r="I5" s="160"/>
       <c r="J5" s="150"/>
@@ -11194,7 +11201,7 @@
         <v>2</v>
       </c>
       <c r="F6" s="197"/>
-      <c r="G6" s="187"/>
+      <c r="G6" s="181"/>
       <c r="H6" s="92"/>
       <c r="I6" s="160"/>
       <c r="J6" s="150"/>
@@ -11213,7 +11220,7 @@
         <v>2</v>
       </c>
       <c r="F7" s="197"/>
-      <c r="G7" s="187"/>
+      <c r="G7" s="181"/>
       <c r="H7" s="92"/>
       <c r="I7" s="160"/>
       <c r="J7" s="150"/>
@@ -11232,7 +11239,7 @@
         <v>2</v>
       </c>
       <c r="F8" s="197"/>
-      <c r="G8" s="187"/>
+      <c r="G8" s="181"/>
       <c r="H8" s="92"/>
       <c r="I8" s="160"/>
       <c r="J8" s="150"/>
@@ -11251,7 +11258,7 @@
         <v>2</v>
       </c>
       <c r="F9" s="197"/>
-      <c r="G9" s="187"/>
+      <c r="G9" s="181"/>
       <c r="H9" s="92"/>
       <c r="I9" s="160"/>
       <c r="J9" s="150"/>
@@ -11270,7 +11277,7 @@
         <v>2</v>
       </c>
       <c r="F10" s="197"/>
-      <c r="G10" s="187"/>
+      <c r="G10" s="181"/>
       <c r="H10" s="92"/>
       <c r="I10" s="160"/>
       <c r="J10" s="150"/>
@@ -11305,10 +11312,10 @@
       <c r="E12" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F12" s="211" t="s">
+      <c r="F12" s="210" t="s">
         <v>392</v>
       </c>
-      <c r="G12" s="182" t="s">
+      <c r="G12" s="176" t="s">
         <v>128</v>
       </c>
       <c r="H12" s="94"/>
@@ -11329,7 +11336,7 @@
         <v>2</v>
       </c>
       <c r="F13" s="200"/>
-      <c r="G13" s="183"/>
+      <c r="G13" s="177"/>
       <c r="H13" s="95"/>
       <c r="I13" s="165"/>
       <c r="J13" s="148"/>
@@ -11348,7 +11355,7 @@
         <v>2</v>
       </c>
       <c r="F14" s="200"/>
-      <c r="G14" s="183"/>
+      <c r="G14" s="177"/>
       <c r="H14" s="95"/>
       <c r="I14" s="165"/>
       <c r="J14" s="148"/>
@@ -11367,7 +11374,7 @@
         <v>2</v>
       </c>
       <c r="F15" s="200"/>
-      <c r="G15" s="183"/>
+      <c r="G15" s="177"/>
       <c r="H15" s="95"/>
       <c r="I15" s="165"/>
       <c r="J15" s="148"/>
@@ -11386,7 +11393,7 @@
         <v>2</v>
       </c>
       <c r="F16" s="200"/>
-      <c r="G16" s="183"/>
+      <c r="G16" s="177"/>
       <c r="H16" s="95"/>
       <c r="I16" s="165"/>
       <c r="J16" s="148"/>
@@ -11405,7 +11412,7 @@
         <v>2</v>
       </c>
       <c r="F17" s="200"/>
-      <c r="G17" s="183"/>
+      <c r="G17" s="177"/>
       <c r="H17" s="95"/>
       <c r="I17" s="165"/>
       <c r="J17" s="148"/>
@@ -11424,7 +11431,7 @@
         <v>2</v>
       </c>
       <c r="F18" s="200"/>
-      <c r="G18" s="183"/>
+      <c r="G18" s="177"/>
       <c r="H18" s="95"/>
       <c r="I18" s="165"/>
       <c r="J18" s="148"/>
@@ -11443,7 +11450,7 @@
         <v>2</v>
       </c>
       <c r="F19" s="200"/>
-      <c r="G19" s="183"/>
+      <c r="G19" s="177"/>
       <c r="H19" s="95"/>
       <c r="I19" s="165"/>
       <c r="J19" s="148"/>
@@ -11462,7 +11469,7 @@
         <v>2</v>
       </c>
       <c r="F20" s="200"/>
-      <c r="G20" s="183"/>
+      <c r="G20" s="177"/>
       <c r="H20" s="95"/>
       <c r="I20" s="165"/>
       <c r="J20" s="148"/>
@@ -13732,8 +13739,8 @@
   </sheetPr>
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -13802,7 +13809,7 @@
       <c r="E2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="117" t="s">
+      <c r="F2" s="212" t="s">
         <v>478</v>
       </c>
       <c r="G2" s="91" t="s">
@@ -16065,7 +16072,7 @@
       <c r="E2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="177" t="s">
+      <c r="F2" s="171" t="s">
         <v>146</v>
       </c>
       <c r="G2" s="108" t="s">
@@ -16088,7 +16095,7 @@
       <c r="E3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="178"/>
+      <c r="F3" s="172"/>
       <c r="G3" s="109"/>
       <c r="H3" s="92"/>
       <c r="I3" s="160"/>
@@ -16107,7 +16114,7 @@
       <c r="E4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="178"/>
+      <c r="F4" s="172"/>
       <c r="G4" s="109"/>
       <c r="H4" s="92"/>
       <c r="I4" s="160"/>
@@ -16126,7 +16133,7 @@
       <c r="E5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="178"/>
+      <c r="F5" s="172"/>
       <c r="G5" s="109"/>
       <c r="H5" s="92"/>
       <c r="I5" s="160"/>
@@ -16145,7 +16152,7 @@
       <c r="E6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="178"/>
+      <c r="F6" s="172"/>
       <c r="G6" s="109"/>
       <c r="H6" s="92"/>
       <c r="I6" s="160"/>
@@ -16164,7 +16171,7 @@
       <c r="E7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="178"/>
+      <c r="F7" s="172"/>
       <c r="G7" s="109"/>
       <c r="H7" s="92"/>
       <c r="I7" s="160"/>
@@ -16183,7 +16190,7 @@
       <c r="E8" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="178"/>
+      <c r="F8" s="172"/>
       <c r="G8" s="109"/>
       <c r="H8" s="92"/>
       <c r="I8" s="160"/>
@@ -16202,7 +16209,7 @@
       <c r="E9" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="178"/>
+      <c r="F9" s="172"/>
       <c r="G9" s="109"/>
       <c r="H9" s="92"/>
       <c r="I9" s="160"/>
@@ -16221,7 +16228,7 @@
       <c r="E10" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="178"/>
+      <c r="F10" s="172"/>
       <c r="G10" s="109"/>
       <c r="H10" s="92"/>
       <c r="I10" s="160"/>
@@ -16240,7 +16247,7 @@
       <c r="E11" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F11" s="178"/>
+      <c r="F11" s="172"/>
       <c r="G11" s="109"/>
       <c r="H11" s="92"/>
       <c r="I11" s="160"/>
@@ -16259,7 +16266,7 @@
       <c r="E12" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F12" s="178"/>
+      <c r="F12" s="172"/>
       <c r="G12" s="109"/>
       <c r="H12" s="92"/>
       <c r="I12" s="160"/>
@@ -16278,7 +16285,7 @@
       <c r="E13" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F13" s="178"/>
+      <c r="F13" s="172"/>
       <c r="G13" s="109"/>
       <c r="H13" s="92"/>
       <c r="I13" s="160"/>
@@ -16297,7 +16304,7 @@
       <c r="E14" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F14" s="178"/>
+      <c r="F14" s="172"/>
       <c r="G14" s="109"/>
       <c r="H14" s="92"/>
       <c r="I14" s="160"/>
@@ -16316,7 +16323,7 @@
       <c r="E15" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F15" s="178"/>
+      <c r="F15" s="172"/>
       <c r="G15" s="109"/>
       <c r="H15" s="92"/>
       <c r="I15" s="160"/>
@@ -16335,7 +16342,7 @@
       <c r="E16" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F16" s="178"/>
+      <c r="F16" s="172"/>
       <c r="G16" s="109"/>
       <c r="H16" s="92"/>
       <c r="I16" s="160"/>
@@ -16354,7 +16361,7 @@
       <c r="E17" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F17" s="178"/>
+      <c r="F17" s="172"/>
       <c r="G17" s="109"/>
       <c r="H17" s="92"/>
       <c r="I17" s="160"/>
@@ -16373,7 +16380,7 @@
       <c r="E18" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="178"/>
+      <c r="F18" s="172"/>
       <c r="G18" s="109"/>
       <c r="H18" s="92"/>
       <c r="I18" s="160"/>
@@ -16392,7 +16399,7 @@
       <c r="E19" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F19" s="178"/>
+      <c r="F19" s="172"/>
       <c r="G19" s="109"/>
       <c r="H19" s="92"/>
       <c r="I19" s="160"/>
@@ -16411,7 +16418,7 @@
       <c r="E20" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F20" s="178"/>
+      <c r="F20" s="172"/>
       <c r="G20" s="109"/>
       <c r="H20" s="92"/>
       <c r="I20" s="160"/>
@@ -16430,8 +16437,8 @@
       <c r="E21" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F21" s="179"/>
-      <c r="G21" s="188"/>
+      <c r="F21" s="173"/>
+      <c r="G21" s="182"/>
       <c r="H21" s="151"/>
       <c r="I21" s="161"/>
       <c r="J21" s="150"/>
@@ -16466,14 +16473,14 @@
       <c r="E23" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F23" s="180" t="s">
+      <c r="F23" s="174" t="s">
         <v>74</v>
       </c>
-      <c r="G23" s="182" t="s">
+      <c r="G23" s="176" t="s">
         <v>128</v>
       </c>
-      <c r="H23" s="173"/>
-      <c r="I23" s="175"/>
+      <c r="H23" s="185"/>
+      <c r="I23" s="187"/>
       <c r="J23" s="147"/>
       <c r="K23" s="130"/>
     </row>
@@ -16489,10 +16496,10 @@
       <c r="E24" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F24" s="181"/>
-      <c r="G24" s="183"/>
-      <c r="H24" s="174"/>
-      <c r="I24" s="176"/>
+      <c r="F24" s="175"/>
+      <c r="G24" s="177"/>
+      <c r="H24" s="186"/>
+      <c r="I24" s="188"/>
       <c r="J24" s="148"/>
       <c r="K24" s="131"/>
     </row>
@@ -16508,10 +16515,10 @@
       <c r="E25" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F25" s="181"/>
-      <c r="G25" s="183"/>
-      <c r="H25" s="174"/>
-      <c r="I25" s="176"/>
+      <c r="F25" s="175"/>
+      <c r="G25" s="177"/>
+      <c r="H25" s="186"/>
+      <c r="I25" s="188"/>
       <c r="J25" s="148"/>
       <c r="K25" s="131"/>
     </row>
@@ -16527,10 +16534,10 @@
       <c r="E26" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F26" s="181"/>
-      <c r="G26" s="183"/>
-      <c r="H26" s="174"/>
-      <c r="I26" s="176"/>
+      <c r="F26" s="175"/>
+      <c r="G26" s="177"/>
+      <c r="H26" s="186"/>
+      <c r="I26" s="188"/>
       <c r="J26" s="148"/>
       <c r="K26" s="131"/>
     </row>
@@ -16546,10 +16553,10 @@
       <c r="E27" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F27" s="181"/>
-      <c r="G27" s="183"/>
-      <c r="H27" s="174"/>
-      <c r="I27" s="176"/>
+      <c r="F27" s="175"/>
+      <c r="G27" s="177"/>
+      <c r="H27" s="186"/>
+      <c r="I27" s="188"/>
       <c r="J27" s="148"/>
       <c r="K27" s="131"/>
     </row>
@@ -16565,10 +16572,10 @@
       <c r="E28" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F28" s="181"/>
-      <c r="G28" s="183"/>
-      <c r="H28" s="174"/>
-      <c r="I28" s="176"/>
+      <c r="F28" s="175"/>
+      <c r="G28" s="177"/>
+      <c r="H28" s="186"/>
+      <c r="I28" s="188"/>
       <c r="J28" s="148"/>
       <c r="K28" s="131"/>
     </row>
@@ -16584,10 +16591,10 @@
       <c r="E29" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F29" s="181"/>
-      <c r="G29" s="183"/>
-      <c r="H29" s="174"/>
-      <c r="I29" s="176"/>
+      <c r="F29" s="175"/>
+      <c r="G29" s="177"/>
+      <c r="H29" s="186"/>
+      <c r="I29" s="188"/>
       <c r="J29" s="148"/>
       <c r="K29" s="131"/>
     </row>
@@ -16603,10 +16610,10 @@
       <c r="E30" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F30" s="181"/>
-      <c r="G30" s="183"/>
-      <c r="H30" s="174"/>
-      <c r="I30" s="176"/>
+      <c r="F30" s="175"/>
+      <c r="G30" s="177"/>
+      <c r="H30" s="186"/>
+      <c r="I30" s="188"/>
       <c r="J30" s="148"/>
       <c r="K30" s="131"/>
     </row>
@@ -16622,10 +16629,10 @@
       <c r="E31" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F31" s="181"/>
-      <c r="G31" s="183"/>
-      <c r="H31" s="174"/>
-      <c r="I31" s="176"/>
+      <c r="F31" s="175"/>
+      <c r="G31" s="177"/>
+      <c r="H31" s="186"/>
+      <c r="I31" s="188"/>
       <c r="J31" s="148"/>
       <c r="K31" s="131"/>
     </row>
@@ -16641,10 +16648,10 @@
       <c r="E32" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F32" s="181"/>
-      <c r="G32" s="183"/>
-      <c r="H32" s="174"/>
-      <c r="I32" s="176"/>
+      <c r="F32" s="175"/>
+      <c r="G32" s="177"/>
+      <c r="H32" s="186"/>
+      <c r="I32" s="188"/>
       <c r="J32" s="148"/>
       <c r="K32" s="131"/>
     </row>
@@ -16660,10 +16667,10 @@
       <c r="E33" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F33" s="181"/>
-      <c r="G33" s="183"/>
-      <c r="H33" s="174"/>
-      <c r="I33" s="176"/>
+      <c r="F33" s="175"/>
+      <c r="G33" s="177"/>
+      <c r="H33" s="186"/>
+      <c r="I33" s="188"/>
       <c r="J33" s="148"/>
       <c r="K33" s="131"/>
     </row>
@@ -16679,10 +16686,10 @@
       <c r="E34" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F34" s="181"/>
-      <c r="G34" s="183"/>
-      <c r="H34" s="174"/>
-      <c r="I34" s="176"/>
+      <c r="F34" s="175"/>
+      <c r="G34" s="177"/>
+      <c r="H34" s="186"/>
+      <c r="I34" s="188"/>
       <c r="J34" s="148"/>
       <c r="K34" s="131"/>
     </row>
@@ -16698,10 +16705,10 @@
       <c r="E35" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F35" s="181"/>
-      <c r="G35" s="183"/>
-      <c r="H35" s="174"/>
-      <c r="I35" s="176"/>
+      <c r="F35" s="175"/>
+      <c r="G35" s="177"/>
+      <c r="H35" s="186"/>
+      <c r="I35" s="188"/>
       <c r="J35" s="148"/>
       <c r="K35" s="131"/>
     </row>
@@ -16717,10 +16724,10 @@
       <c r="E36" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F36" s="181"/>
-      <c r="G36" s="183"/>
-      <c r="H36" s="174"/>
-      <c r="I36" s="176"/>
+      <c r="F36" s="175"/>
+      <c r="G36" s="177"/>
+      <c r="H36" s="186"/>
+      <c r="I36" s="188"/>
       <c r="J36" s="148"/>
       <c r="K36" s="131"/>
     </row>
@@ -16736,10 +16743,10 @@
       <c r="E37" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F37" s="181"/>
-      <c r="G37" s="183"/>
-      <c r="H37" s="174"/>
-      <c r="I37" s="176"/>
+      <c r="F37" s="175"/>
+      <c r="G37" s="177"/>
+      <c r="H37" s="186"/>
+      <c r="I37" s="188"/>
       <c r="J37" s="148"/>
       <c r="K37" s="131"/>
     </row>
@@ -16755,10 +16762,10 @@
       <c r="E38" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F38" s="181"/>
-      <c r="G38" s="183"/>
-      <c r="H38" s="174"/>
-      <c r="I38" s="176"/>
+      <c r="F38" s="175"/>
+      <c r="G38" s="177"/>
+      <c r="H38" s="186"/>
+      <c r="I38" s="188"/>
       <c r="J38" s="148"/>
       <c r="K38" s="131"/>
     </row>
@@ -16791,8 +16798,8 @@
       <c r="E40" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F40" s="184"/>
-      <c r="G40" s="186" t="s">
+      <c r="F40" s="178"/>
+      <c r="G40" s="180" t="s">
         <v>128</v>
       </c>
       <c r="H40" s="91"/>
@@ -16812,8 +16819,8 @@
       <c r="E41" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F41" s="185"/>
-      <c r="G41" s="187"/>
+      <c r="F41" s="179"/>
+      <c r="G41" s="181"/>
       <c r="H41" s="92"/>
       <c r="I41" s="153"/>
       <c r="J41" s="150"/>
@@ -16831,8 +16838,8 @@
       <c r="E42" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="F42" s="185"/>
-      <c r="G42" s="187"/>
+      <c r="F42" s="179"/>
+      <c r="G42" s="181"/>
       <c r="H42" s="92"/>
       <c r="I42" s="153"/>
       <c r="J42" s="150"/>
@@ -16850,8 +16857,8 @@
       <c r="E43" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="F43" s="185"/>
-      <c r="G43" s="187"/>
+      <c r="F43" s="179"/>
+      <c r="G43" s="181"/>
       <c r="H43" s="92"/>
       <c r="I43" s="153"/>
       <c r="J43" s="150"/>
@@ -16869,8 +16876,8 @@
       <c r="E44" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="F44" s="185"/>
-      <c r="G44" s="187"/>
+      <c r="F44" s="179"/>
+      <c r="G44" s="181"/>
       <c r="H44" s="92"/>
       <c r="I44" s="153"/>
       <c r="J44" s="150"/>
@@ -16888,8 +16895,8 @@
       <c r="E45" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="F45" s="185"/>
-      <c r="G45" s="187"/>
+      <c r="F45" s="179"/>
+      <c r="G45" s="181"/>
       <c r="H45" s="92"/>
       <c r="I45" s="153"/>
       <c r="J45" s="150"/>
@@ -16907,8 +16914,8 @@
       <c r="E46" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F46" s="185"/>
-      <c r="G46" s="187"/>
+      <c r="F46" s="179"/>
+      <c r="G46" s="181"/>
       <c r="H46" s="92"/>
       <c r="I46" s="153"/>
       <c r="J46" s="150"/>
@@ -16926,8 +16933,8 @@
       <c r="E47" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F47" s="185"/>
-      <c r="G47" s="187"/>
+      <c r="F47" s="179"/>
+      <c r="G47" s="181"/>
       <c r="H47" s="92"/>
       <c r="I47" s="153"/>
       <c r="J47" s="150"/>
@@ -16945,8 +16952,8 @@
       <c r="E48" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F48" s="185"/>
-      <c r="G48" s="187"/>
+      <c r="F48" s="179"/>
+      <c r="G48" s="181"/>
       <c r="H48" s="92"/>
       <c r="I48" s="153"/>
       <c r="J48" s="150"/>
@@ -16964,8 +16971,8 @@
       <c r="E49" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F49" s="185"/>
-      <c r="G49" s="187"/>
+      <c r="F49" s="179"/>
+      <c r="G49" s="181"/>
       <c r="H49" s="92"/>
       <c r="I49" s="153"/>
       <c r="J49" s="150"/>
@@ -16983,8 +16990,8 @@
       <c r="E50" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F50" s="185"/>
-      <c r="G50" s="187"/>
+      <c r="F50" s="179"/>
+      <c r="G50" s="181"/>
       <c r="H50" s="92"/>
       <c r="I50" s="153"/>
       <c r="J50" s="150"/>
@@ -17002,8 +17009,8 @@
       <c r="E51" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F51" s="185"/>
-      <c r="G51" s="187"/>
+      <c r="F51" s="179"/>
+      <c r="G51" s="181"/>
       <c r="H51" s="92"/>
       <c r="I51" s="153"/>
       <c r="J51" s="150"/>
@@ -17021,8 +17028,8 @@
       <c r="E52" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F52" s="185"/>
-      <c r="G52" s="187"/>
+      <c r="F52" s="179"/>
+      <c r="G52" s="181"/>
       <c r="H52" s="92"/>
       <c r="I52" s="153"/>
       <c r="J52" s="150"/>
@@ -17040,16 +17047,16 @@
       <c r="E53" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F53" s="185"/>
-      <c r="G53" s="187"/>
+      <c r="F53" s="179"/>
+      <c r="G53" s="181"/>
       <c r="H53" s="92"/>
       <c r="I53" s="153"/>
       <c r="J53" s="150"/>
       <c r="K53" s="126"/>
     </row>
     <row r="54" spans="1:11" s="18" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="171"/>
-      <c r="B54" s="172"/>
+      <c r="A54" s="183"/>
+      <c r="B54" s="184"/>
       <c r="C54" s="69" t="s">
         <v>323</v>
       </c>
@@ -17059,8 +17066,8 @@
       <c r="E54" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F54" s="185"/>
-      <c r="G54" s="187"/>
+      <c r="F54" s="179"/>
+      <c r="G54" s="181"/>
       <c r="H54" s="92"/>
       <c r="I54" s="153"/>
       <c r="J54" s="150"/>
@@ -17081,6 +17088,19 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A2:A21"/>
+    <mergeCell ref="B2:B21"/>
+    <mergeCell ref="A23:A38"/>
+    <mergeCell ref="B23:B38"/>
+    <mergeCell ref="H2:H21"/>
+    <mergeCell ref="A40:A54"/>
+    <mergeCell ref="B40:B54"/>
+    <mergeCell ref="H23:H38"/>
+    <mergeCell ref="I23:I38"/>
+    <mergeCell ref="J23:J38"/>
+    <mergeCell ref="H40:H54"/>
+    <mergeCell ref="I40:I54"/>
+    <mergeCell ref="J40:J54"/>
     <mergeCell ref="K40:K54"/>
     <mergeCell ref="F2:F21"/>
     <mergeCell ref="F23:F38"/>
@@ -17092,19 +17112,6 @@
     <mergeCell ref="I2:I21"/>
     <mergeCell ref="J2:J21"/>
     <mergeCell ref="K2:K21"/>
-    <mergeCell ref="A40:A54"/>
-    <mergeCell ref="B40:B54"/>
-    <mergeCell ref="H23:H38"/>
-    <mergeCell ref="I23:I38"/>
-    <mergeCell ref="J23:J38"/>
-    <mergeCell ref="H40:H54"/>
-    <mergeCell ref="I40:I54"/>
-    <mergeCell ref="J40:J54"/>
-    <mergeCell ref="A2:A21"/>
-    <mergeCell ref="B2:B21"/>
-    <mergeCell ref="A23:A38"/>
-    <mergeCell ref="B23:B38"/>
-    <mergeCell ref="H2:H21"/>
   </mergeCells>
   <conditionalFormatting sqref="E2:E21 E46:E54">
     <cfRule type="cellIs" dxfId="304" priority="58" operator="equal">
@@ -17401,7 +17408,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="197"/>
-      <c r="G3" s="187"/>
+      <c r="G3" s="181"/>
       <c r="H3" s="92"/>
       <c r="I3" s="160"/>
       <c r="J3" s="150"/>
@@ -17420,7 +17427,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="197"/>
-      <c r="G4" s="187"/>
+      <c r="G4" s="181"/>
       <c r="H4" s="92"/>
       <c r="I4" s="160"/>
       <c r="J4" s="150"/>
@@ -17439,7 +17446,7 @@
         <v>2</v>
       </c>
       <c r="F5" s="197"/>
-      <c r="G5" s="187"/>
+      <c r="G5" s="181"/>
       <c r="H5" s="92"/>
       <c r="I5" s="160"/>
       <c r="J5" s="150"/>
@@ -17458,7 +17465,7 @@
         <v>2</v>
       </c>
       <c r="F6" s="197"/>
-      <c r="G6" s="187"/>
+      <c r="G6" s="181"/>
       <c r="H6" s="92"/>
       <c r="I6" s="160"/>
       <c r="J6" s="150"/>
@@ -17477,7 +17484,7 @@
         <v>2</v>
       </c>
       <c r="F7" s="197"/>
-      <c r="G7" s="187"/>
+      <c r="G7" s="181"/>
       <c r="H7" s="92"/>
       <c r="I7" s="160"/>
       <c r="J7" s="150"/>
@@ -17496,7 +17503,7 @@
         <v>2</v>
       </c>
       <c r="F8" s="197"/>
-      <c r="G8" s="187"/>
+      <c r="G8" s="181"/>
       <c r="H8" s="92"/>
       <c r="I8" s="160"/>
       <c r="J8" s="150"/>
@@ -17515,7 +17522,7 @@
         <v>2</v>
       </c>
       <c r="F9" s="197"/>
-      <c r="G9" s="187"/>
+      <c r="G9" s="181"/>
       <c r="H9" s="92"/>
       <c r="I9" s="160"/>
       <c r="J9" s="150"/>
@@ -17534,7 +17541,7 @@
         <v>2</v>
       </c>
       <c r="F10" s="197"/>
-      <c r="G10" s="187"/>
+      <c r="G10" s="181"/>
       <c r="H10" s="92"/>
       <c r="I10" s="160"/>
       <c r="J10" s="150"/>
@@ -17553,7 +17560,7 @@
         <v>2</v>
       </c>
       <c r="F11" s="197"/>
-      <c r="G11" s="187"/>
+      <c r="G11" s="181"/>
       <c r="H11" s="92"/>
       <c r="I11" s="160"/>
       <c r="J11" s="150"/>
@@ -17572,7 +17579,7 @@
         <v>2</v>
       </c>
       <c r="F12" s="197"/>
-      <c r="G12" s="187"/>
+      <c r="G12" s="181"/>
       <c r="H12" s="92"/>
       <c r="I12" s="160"/>
       <c r="J12" s="150"/>
@@ -17591,7 +17598,7 @@
         <v>2</v>
       </c>
       <c r="F13" s="197"/>
-      <c r="G13" s="187"/>
+      <c r="G13" s="181"/>
       <c r="H13" s="92"/>
       <c r="I13" s="160"/>
       <c r="J13" s="150"/>
@@ -17610,7 +17617,7 @@
         <v>2</v>
       </c>
       <c r="F14" s="197"/>
-      <c r="G14" s="187"/>
+      <c r="G14" s="181"/>
       <c r="H14" s="92"/>
       <c r="I14" s="160"/>
       <c r="J14" s="150"/>
@@ -17629,7 +17636,7 @@
         <v>2</v>
       </c>
       <c r="F15" s="197"/>
-      <c r="G15" s="187"/>
+      <c r="G15" s="181"/>
       <c r="H15" s="92"/>
       <c r="I15" s="160"/>
       <c r="J15" s="150"/>
@@ -17648,7 +17655,7 @@
         <v>2</v>
       </c>
       <c r="F16" s="197"/>
-      <c r="G16" s="187"/>
+      <c r="G16" s="181"/>
       <c r="H16" s="92"/>
       <c r="I16" s="160"/>
       <c r="J16" s="150"/>
@@ -17667,7 +17674,7 @@
         <v>2</v>
       </c>
       <c r="F17" s="197"/>
-      <c r="G17" s="187"/>
+      <c r="G17" s="181"/>
       <c r="H17" s="92"/>
       <c r="I17" s="160"/>
       <c r="J17" s="150"/>
@@ -17722,7 +17729,7 @@
         <v>2</v>
       </c>
       <c r="F20" s="199"/>
-      <c r="G20" s="182" t="s">
+      <c r="G20" s="176" t="s">
         <v>128</v>
       </c>
       <c r="H20" s="94"/>
@@ -17743,7 +17750,7 @@
         <v>2</v>
       </c>
       <c r="F21" s="200"/>
-      <c r="G21" s="183"/>
+      <c r="G21" s="177"/>
       <c r="H21" s="95"/>
       <c r="I21" s="165"/>
       <c r="J21" s="148"/>
@@ -17762,7 +17769,7 @@
         <v>2</v>
       </c>
       <c r="F22" s="200"/>
-      <c r="G22" s="183"/>
+      <c r="G22" s="177"/>
       <c r="H22" s="95"/>
       <c r="I22" s="165"/>
       <c r="J22" s="148"/>
@@ -17781,7 +17788,7 @@
         <v>2</v>
       </c>
       <c r="F23" s="200"/>
-      <c r="G23" s="183"/>
+      <c r="G23" s="177"/>
       <c r="H23" s="95"/>
       <c r="I23" s="165"/>
       <c r="J23" s="148"/>
@@ -17800,7 +17807,7 @@
         <v>2</v>
       </c>
       <c r="F24" s="200"/>
-      <c r="G24" s="183"/>
+      <c r="G24" s="177"/>
       <c r="H24" s="95"/>
       <c r="I24" s="165"/>
       <c r="J24" s="148"/>
@@ -17819,7 +17826,7 @@
         <v>2</v>
       </c>
       <c r="F25" s="200"/>
-      <c r="G25" s="183"/>
+      <c r="G25" s="177"/>
       <c r="H25" s="95"/>
       <c r="I25" s="165"/>
       <c r="J25" s="148"/>
@@ -17838,7 +17845,7 @@
         <v>2</v>
       </c>
       <c r="F26" s="200"/>
-      <c r="G26" s="183"/>
+      <c r="G26" s="177"/>
       <c r="H26" s="95"/>
       <c r="I26" s="165"/>
       <c r="J26" s="148"/>
@@ -17857,7 +17864,7 @@
         <v>2</v>
       </c>
       <c r="F27" s="200"/>
-      <c r="G27" s="183"/>
+      <c r="G27" s="177"/>
       <c r="H27" s="95"/>
       <c r="I27" s="165"/>
       <c r="J27" s="148"/>
@@ -17876,7 +17883,7 @@
         <v>2</v>
       </c>
       <c r="F28" s="200"/>
-      <c r="G28" s="183"/>
+      <c r="G28" s="177"/>
       <c r="H28" s="95"/>
       <c r="I28" s="165"/>
       <c r="J28" s="148"/>
@@ -17895,7 +17902,7 @@
         <v>2</v>
       </c>
       <c r="F29" s="200"/>
-      <c r="G29" s="183"/>
+      <c r="G29" s="177"/>
       <c r="H29" s="95"/>
       <c r="I29" s="165"/>
       <c r="J29" s="148"/>
@@ -17914,7 +17921,7 @@
         <v>2</v>
       </c>
       <c r="F30" s="200"/>
-      <c r="G30" s="183"/>
+      <c r="G30" s="177"/>
       <c r="H30" s="95"/>
       <c r="I30" s="165"/>
       <c r="J30" s="148"/>
@@ -17933,7 +17940,7 @@
         <v>2</v>
       </c>
       <c r="F31" s="200"/>
-      <c r="G31" s="183"/>
+      <c r="G31" s="177"/>
       <c r="H31" s="95"/>
       <c r="I31" s="165"/>
       <c r="J31" s="148"/>
@@ -17952,7 +17959,7 @@
         <v>2</v>
       </c>
       <c r="F32" s="200"/>
-      <c r="G32" s="183"/>
+      <c r="G32" s="177"/>
       <c r="H32" s="95"/>
       <c r="I32" s="165"/>
       <c r="J32" s="148"/>
@@ -17971,7 +17978,7 @@
         <v>2</v>
       </c>
       <c r="F33" s="200"/>
-      <c r="G33" s="183"/>
+      <c r="G33" s="177"/>
       <c r="H33" s="95"/>
       <c r="I33" s="165"/>
       <c r="J33" s="148"/>
@@ -18002,6 +18009,13 @@
     <row r="44" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="K2:K18"/>
+    <mergeCell ref="H20:H33"/>
+    <mergeCell ref="I20:I33"/>
+    <mergeCell ref="J20:J33"/>
+    <mergeCell ref="K20:K33"/>
+    <mergeCell ref="H2:H18"/>
+    <mergeCell ref="I2:I18"/>
     <mergeCell ref="A20:A33"/>
     <mergeCell ref="B20:B33"/>
     <mergeCell ref="A2:A18"/>
@@ -18011,13 +18025,6 @@
     <mergeCell ref="F2:F18"/>
     <mergeCell ref="F20:F33"/>
     <mergeCell ref="G20:G33"/>
-    <mergeCell ref="K2:K18"/>
-    <mergeCell ref="H20:H33"/>
-    <mergeCell ref="I20:I33"/>
-    <mergeCell ref="J20:J33"/>
-    <mergeCell ref="K20:K33"/>
-    <mergeCell ref="H2:H18"/>
-    <mergeCell ref="I2:I18"/>
   </mergeCells>
   <conditionalFormatting sqref="E2:G2 E3:E18 E21:E33">
     <cfRule type="cellIs" dxfId="253" priority="21" operator="equal">
@@ -18202,7 +18209,7 @@
       <c r="E2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="177" t="s">
+      <c r="F2" s="171" t="s">
         <v>148</v>
       </c>
       <c r="G2" s="91" t="s">
@@ -18225,7 +18232,7 @@
       <c r="E3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="178"/>
+      <c r="F3" s="172"/>
       <c r="G3" s="92"/>
       <c r="H3" s="92"/>
       <c r="I3" s="160"/>
@@ -18244,7 +18251,7 @@
       <c r="E4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="178"/>
+      <c r="F4" s="172"/>
       <c r="G4" s="92"/>
       <c r="H4" s="92"/>
       <c r="I4" s="160"/>
@@ -18263,7 +18270,7 @@
       <c r="E5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="178"/>
+      <c r="F5" s="172"/>
       <c r="G5" s="92"/>
       <c r="H5" s="92"/>
       <c r="I5" s="160"/>
@@ -18282,7 +18289,7 @@
       <c r="E6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="178"/>
+      <c r="F6" s="172"/>
       <c r="G6" s="92"/>
       <c r="H6" s="92"/>
       <c r="I6" s="160"/>
@@ -18301,7 +18308,7 @@
       <c r="E7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="178"/>
+      <c r="F7" s="172"/>
       <c r="G7" s="92"/>
       <c r="H7" s="92"/>
       <c r="I7" s="160"/>
@@ -18320,7 +18327,7 @@
       <c r="E8" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="178"/>
+      <c r="F8" s="172"/>
       <c r="G8" s="92"/>
       <c r="H8" s="92"/>
       <c r="I8" s="160"/>
@@ -18522,7 +18529,7 @@
       <c r="E3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="178"/>
+      <c r="F3" s="172"/>
       <c r="G3" s="160"/>
       <c r="H3" s="160"/>
       <c r="I3" s="160"/>
@@ -18541,7 +18548,7 @@
       <c r="E4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="178"/>
+      <c r="F4" s="172"/>
       <c r="G4" s="160"/>
       <c r="H4" s="160"/>
       <c r="I4" s="160"/>
@@ -18560,7 +18567,7 @@
       <c r="E5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="178"/>
+      <c r="F5" s="172"/>
       <c r="G5" s="160"/>
       <c r="H5" s="160"/>
       <c r="I5" s="160"/>
@@ -18579,7 +18586,7 @@
       <c r="E6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="178"/>
+      <c r="F6" s="172"/>
       <c r="G6" s="160"/>
       <c r="H6" s="160"/>
       <c r="I6" s="160"/>
@@ -18598,7 +18605,7 @@
       <c r="E7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="178"/>
+      <c r="F7" s="172"/>
       <c r="G7" s="160"/>
       <c r="H7" s="160"/>
       <c r="I7" s="160"/>
@@ -18617,7 +18624,7 @@
       <c r="E8" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="178"/>
+      <c r="F8" s="172"/>
       <c r="G8" s="160"/>
       <c r="H8" s="160"/>
       <c r="I8" s="160"/>
@@ -18636,7 +18643,7 @@
       <c r="E9" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="178"/>
+      <c r="F9" s="172"/>
       <c r="G9" s="160"/>
       <c r="H9" s="160"/>
       <c r="I9" s="160"/>
@@ -18655,7 +18662,7 @@
       <c r="E10" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="178"/>
+      <c r="F10" s="172"/>
       <c r="G10" s="160"/>
       <c r="H10" s="160"/>
       <c r="I10" s="160"/>
@@ -18674,7 +18681,7 @@
       <c r="E11" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F11" s="178"/>
+      <c r="F11" s="172"/>
       <c r="G11" s="160"/>
       <c r="H11" s="160"/>
       <c r="I11" s="160"/>
@@ -18693,7 +18700,7 @@
       <c r="E12" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F12" s="178"/>
+      <c r="F12" s="172"/>
       <c r="G12" s="160"/>
       <c r="H12" s="160"/>
       <c r="I12" s="160"/>
@@ -18712,7 +18719,7 @@
       <c r="E13" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F13" s="178"/>
+      <c r="F13" s="172"/>
       <c r="G13" s="160"/>
       <c r="H13" s="160"/>
       <c r="I13" s="160"/>
@@ -18731,7 +18738,7 @@
       <c r="E14" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F14" s="178"/>
+      <c r="F14" s="172"/>
       <c r="G14" s="160"/>
       <c r="H14" s="160"/>
       <c r="I14" s="160"/>

--- a/data/Final-Manual-Oussama.xlsx
+++ b/data/Final-Manual-Oussama.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/newuser/Desktop/FinalProjectTeam1/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C57F357-F44B-B043-A74A-72D8D0BFB1DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E23D3C3A-5815-0043-B804-140CBA936672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16680" firstSheet="16" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
